--- a/data/plan.xlsx
+++ b/data/plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="520">
   <si>
     <t>record_id</t>
   </si>
@@ -1556,7 +1556,34 @@
     <t>Просмотр работ ИЗО отделения</t>
   </si>
   <si>
-    <t>2</t>
+    <t>Духовые и ударные инструменты</t>
+  </si>
+  <si>
+    <t>Теоретические дисциплины</t>
+  </si>
+  <si>
+    <t>Народные инструменты</t>
+  </si>
+  <si>
+    <t>Музыкальный фольклор</t>
+  </si>
+  <si>
+    <t>Отделение развития МО</t>
+  </si>
+  <si>
+    <t>Художественный отдел</t>
+  </si>
+  <si>
+    <t>Хореография</t>
+  </si>
+  <si>
+    <t>Сценическое мастерство</t>
+  </si>
+  <si>
+    <t>Архитектурное творчество</t>
+  </si>
+  <si>
+    <t>Основы дизайна</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1627,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1634,11 +1661,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1653,6 +1717,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1935,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AT135"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A125" sqref="A1:AT138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2097,10 +2179,10 @@
         <v>9620</v>
       </c>
       <c r="B2" s="3">
-        <v>1671264000</v>
+        <v>1671267600</v>
       </c>
       <c r="C2" s="3">
-        <v>1671267600</v>
+        <v>1671273900</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -2217,10 +2299,10 @@
         <v>9627</v>
       </c>
       <c r="B3" s="3">
-        <v>1671633000</v>
+        <v>1671636600</v>
       </c>
       <c r="C3" s="3">
-        <v>1671636600</v>
+        <v>1671642000</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -2335,10 +2417,10 @@
         <v>9630</v>
       </c>
       <c r="B4" s="3">
-        <v>1672241400</v>
+        <v>1672243200</v>
       </c>
       <c r="C4" s="3">
-        <v>1672243200</v>
+        <v>1672248600</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -2449,10 +2531,10 @@
         <v>9671</v>
       </c>
       <c r="B5" s="3">
-        <v>1670482800</v>
+        <v>1670486400</v>
       </c>
       <c r="C5" s="3">
-        <v>1670486400</v>
+        <v>1670497200</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -2567,10 +2649,10 @@
         <v>9672</v>
       </c>
       <c r="B6" s="3">
-        <v>1671606000</v>
+        <v>1671609600</v>
       </c>
       <c r="C6" s="3">
-        <v>1671609600</v>
+        <v>1671620400</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -2681,10 +2763,10 @@
         <v>9675</v>
       </c>
       <c r="B7" s="3">
-        <v>1671519600</v>
+        <v>1671523200</v>
       </c>
       <c r="C7" s="3">
-        <v>1671523200</v>
+        <v>1671534000</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -2797,10 +2879,10 @@
         <v>9676</v>
       </c>
       <c r="B8" s="3">
-        <v>1671778800</v>
+        <v>1671782400</v>
       </c>
       <c r="C8" s="3">
-        <v>1671782400</v>
+        <v>1671793200</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2911,10 +2993,10 @@
         <v>9725</v>
       </c>
       <c r="B9" s="3">
-        <v>1671550200</v>
+        <v>1671552000</v>
       </c>
       <c r="C9" s="3">
-        <v>1671552000</v>
+        <v>1671557400</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -3027,10 +3109,10 @@
         <v>9735</v>
       </c>
       <c r="B10" s="3">
-        <v>1670337900</v>
+        <v>1670339700</v>
       </c>
       <c r="C10" s="3">
-        <v>1670339700</v>
+        <v>1670344200</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -3145,10 +3227,10 @@
         <v>9674</v>
       </c>
       <c r="B11" s="3">
-        <v>1671201000</v>
+        <v>1671204600</v>
       </c>
       <c r="C11" s="3">
-        <v>1671204600</v>
+        <v>1671210000</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -3263,10 +3345,10 @@
         <v>9831</v>
       </c>
       <c r="B12" s="3">
-        <v>1671024600</v>
+        <v>1671031800</v>
       </c>
       <c r="C12" s="3">
-        <v>1671031800</v>
+        <v>1671037200</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -3383,10 +3465,10 @@
         <v>9938</v>
       </c>
       <c r="B13" s="3">
-        <v>1670592600</v>
+        <v>1670598000</v>
       </c>
       <c r="C13" s="3">
-        <v>1670598000</v>
+        <v>1670605200</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -3501,10 +3583,10 @@
         <v>9940</v>
       </c>
       <c r="B14" s="3">
-        <v>1670419800</v>
+        <v>1670427000</v>
       </c>
       <c r="C14" s="3">
-        <v>1670427000</v>
+        <v>1670434200</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -3623,10 +3705,10 @@
         <v>9973</v>
       </c>
       <c r="B15" s="3">
-        <v>1670050800</v>
+        <v>1670054400</v>
       </c>
       <c r="C15" s="3">
-        <v>1670054400</v>
+        <v>1670065200</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -3739,10 +3821,10 @@
         <v>9819</v>
       </c>
       <c r="B16" s="3">
-        <v>1670317200</v>
+        <v>1670319000</v>
       </c>
       <c r="C16" s="3">
-        <v>1670319000</v>
+        <v>1670328000</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -3857,10 +3939,10 @@
         <v>9818</v>
       </c>
       <c r="B17" s="3">
-        <v>1670414400</v>
+        <v>1670416200</v>
       </c>
       <c r="C17" s="3">
-        <v>1670416200</v>
+        <v>1670423400</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -3975,10 +4057,10 @@
         <v>9751</v>
       </c>
       <c r="B18" s="3">
-        <v>1671456600</v>
+        <v>1671462000</v>
       </c>
       <c r="C18" s="3">
-        <v>1671462000</v>
+        <v>1671465600</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -4097,10 +4179,10 @@
         <v>9752</v>
       </c>
       <c r="B19" s="3">
-        <v>1671627600</v>
+        <v>1671634800</v>
       </c>
       <c r="C19" s="3">
-        <v>1671634800</v>
+        <v>1671638400</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -4217,10 +4299,10 @@
         <v>10001</v>
       </c>
       <c r="B20" s="3">
-        <v>1670580000</v>
+        <v>1670583600</v>
       </c>
       <c r="C20" s="3">
-        <v>1670583600</v>
+        <v>1670590800</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -4331,10 +4413,10 @@
         <v>10030</v>
       </c>
       <c r="B21" s="3">
-        <v>1671444000</v>
+        <v>1671447600</v>
       </c>
       <c r="C21" s="3">
-        <v>1671447600</v>
+        <v>1671451200</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -4446,15 +4528,21 @@
       <c r="A22" s="3">
         <v>7346</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3">
+        <v>1670842800</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1670864400</v>
+      </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="3">
         <v>221</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G22" s="3">
         <v>1</v>
       </c>
@@ -4540,15 +4628,21 @@
       <c r="A23" s="3">
         <v>7347</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="3">
+        <v>1671015600</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1671037200</v>
+      </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="3">
         <v>221</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G23" s="3">
         <v>1</v>
       </c>
@@ -4634,15 +4728,21 @@
       <c r="A24" s="3">
         <v>7348</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="3">
+        <v>1670929200</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1670950800</v>
+      </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="3">
         <v>221</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G24" s="3">
         <v>1</v>
       </c>
@@ -4728,15 +4828,21 @@
       <c r="A25" s="3">
         <v>9621</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3">
+        <v>1671028200</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1671033600</v>
+      </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="3">
         <v>103</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G25" s="3">
         <v>1</v>
       </c>
@@ -4820,15 +4926,21 @@
       <c r="A26" s="3">
         <v>9647</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="3">
+        <v>1670418000</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1670425200</v>
+      </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="3">
         <v>116</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>511</v>
+      </c>
       <c r="G26" s="3">
         <v>2</v>
       </c>
@@ -4916,15 +5028,21 @@
       <c r="A27" s="3">
         <v>9679</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3">
+        <v>1671094800</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1671721200</v>
+      </c>
       <c r="D27" s="3">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G27" s="3">
         <v>2</v>
       </c>
@@ -5008,15 +5126,21 @@
       <c r="A28" s="3">
         <v>9692</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3">
+        <v>1669968000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1669978800</v>
+      </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="3">
         <v>103</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="3">
         <v>1</v>
       </c>
@@ -5100,15 +5224,21 @@
       <c r="A29" s="3">
         <v>9715</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="3">
+        <v>1671118200</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1671125400</v>
+      </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="3">
         <v>302</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G29" s="3">
         <v>2</v>
       </c>
@@ -5198,15 +5328,21 @@
       <c r="A30" s="3">
         <v>9716</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="3">
+        <v>1671622200</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1671633000</v>
+      </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="3">
         <v>212</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G30" s="3">
         <v>1</v>
       </c>
@@ -5290,15 +5426,21 @@
       <c r="A31" s="3">
         <v>9717</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="3">
+        <v>1671017400</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1671028200</v>
+      </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="3">
         <v>212</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G31" s="3">
         <v>1</v>
       </c>
@@ -5382,15 +5524,21 @@
       <c r="A32" s="3">
         <v>9718</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="3">
+        <v>1671449400</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1671456600</v>
+      </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="3">
         <v>212</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G32" s="3">
         <v>1</v>
       </c>
@@ -5474,15 +5622,21 @@
       <c r="A33" s="3">
         <v>9719</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="3">
+        <v>1671708600</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1671715800</v>
+      </c>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="3">
         <v>212</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
@@ -5566,15 +5720,21 @@
       <c r="A34" s="3">
         <v>9720</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="3">
+        <v>1670427000</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1670432400</v>
+      </c>
       <c r="D34" s="3">
         <v>1</v>
       </c>
       <c r="E34" s="3">
         <v>103</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G34" s="3">
         <v>2</v>
       </c>
@@ -5660,15 +5820,21 @@
       <c r="A35" s="3">
         <v>9724</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="3">
+        <v>1671534000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1671541200</v>
+      </c>
       <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="3">
         <v>103</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G35" s="3">
         <v>1</v>
       </c>
@@ -5752,15 +5918,21 @@
       <c r="A36" s="3">
         <v>9737</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="3">
+        <v>1671534000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1671829200</v>
+      </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G36" s="3">
         <v>1</v>
       </c>
@@ -5844,15 +6016,21 @@
       <c r="A37" s="3">
         <v>9738</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="3">
+        <v>1669896000</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1670515200</v>
+      </c>
       <c r="D37" s="3">
         <v>1</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G37" s="3">
         <v>1</v>
       </c>
@@ -5936,15 +6114,21 @@
       <c r="A38" s="3">
         <v>9741</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="3">
+        <v>1671811200</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1671818400</v>
+      </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="E38" s="3">
         <v>302</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G38" s="3">
         <v>2</v>
       </c>
@@ -6032,15 +6216,21 @@
       <c r="A39" s="3">
         <v>9743</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="B39" s="3">
+        <v>1671354000</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1671368400</v>
+      </c>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="3">
         <v>302</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G39" s="3">
         <v>2</v>
       </c>
@@ -6132,15 +6322,21 @@
       <c r="A40" s="3">
         <v>9753</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="3">
+        <v>1670839200</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1671292800</v>
+      </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="E40" s="3">
         <v>303</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G40" s="3">
         <v>1</v>
       </c>
@@ -6226,15 +6422,21 @@
       <c r="A41" s="3">
         <v>9754</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="B41" s="3">
+        <v>1671346800</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1671886800</v>
+      </c>
       <c r="D41" s="3">
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G41" s="3">
         <v>3</v>
       </c>
@@ -6318,15 +6520,21 @@
       <c r="A42" s="3">
         <v>9780</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="B42" s="3">
+        <v>1670223600</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1671894000</v>
+      </c>
       <c r="D42" s="3">
         <v>2</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G42" s="3">
         <v>2</v>
       </c>
@@ -6412,15 +6620,21 @@
       <c r="A43" s="3">
         <v>9817</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="3">
+        <v>1670227200</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1670241600</v>
+      </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="3">
         <v>347</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="G43" s="3">
         <v>1</v>
       </c>
@@ -6506,15 +6720,21 @@
       <c r="A44" s="3">
         <v>9845</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="B44" s="3">
+        <v>1670914800</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1670943600</v>
+      </c>
       <c r="D44" s="3">
         <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G44" s="3">
         <v>4</v>
       </c>
@@ -6598,15 +6818,21 @@
       <c r="A45" s="3">
         <v>9848</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="B45" s="3">
+        <v>1671717600</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1671723000</v>
+      </c>
       <c r="D45" s="3">
         <v>1</v>
       </c>
       <c r="E45" s="3">
         <v>207</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G45" s="3">
         <v>1</v>
       </c>
@@ -6694,15 +6920,21 @@
       <c r="A46" s="3">
         <v>9864</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="3">
+        <v>1671870600</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1671879600</v>
+      </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" s="3">
         <v>103</v>
       </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G46" s="3">
         <v>5</v>
       </c>
@@ -6786,15 +7018,21 @@
       <c r="A47" s="3">
         <v>9865</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="B47" s="3">
+        <v>1671267600</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1671273000</v>
+      </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" s="3">
         <v>103</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G47" s="3">
         <v>5</v>
       </c>
@@ -6880,15 +7118,21 @@
       <c r="A48" s="3">
         <v>9867</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="3">
+        <v>1671285600</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1671292800</v>
+      </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="3">
         <v>103</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G48" s="3">
         <v>5</v>
       </c>
@@ -6972,15 +7216,21 @@
       <c r="A49" s="3">
         <v>9868</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="3">
+        <v>1671278400</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1671285600</v>
+      </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="3">
         <v>103</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G49" s="3">
         <v>5</v>
       </c>
@@ -7064,15 +7314,21 @@
       <c r="A50" s="3">
         <v>9869</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="B50" s="3">
+        <v>1671886800</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1671894000</v>
+      </c>
       <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="E50" s="3">
         <v>103</v>
       </c>
-      <c r="F50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G50" s="3">
         <v>5</v>
       </c>
@@ -7152,211 +7408,175 @@
       <c r="AS50" s="3"/>
       <c r="AT50" s="3"/>
     </row>
-    <row r="51" spans="1:46" ht="313.5">
-      <c r="A51" s="3">
+    <row r="51" spans="1:46">
+      <c r="A51" s="9">
         <v>9870</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="B51" s="9">
+        <v>1671809400</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1671816600</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
         <v>103</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3">
-        <v>2</v>
-      </c>
-      <c r="H51" s="3" t="s">
+      <c r="F51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="9">
+        <v>2</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="9">
         <v>7</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3">
-        <v>0</v>
-      </c>
-      <c r="P51" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>0</v>
-      </c>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3" t="s">
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9">
+        <v>0</v>
+      </c>
+      <c r="P51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>0</v>
+      </c>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="V51" s="3">
+      <c r="V51" s="9">
         <v>1671742800</v>
       </c>
-      <c r="W51" s="3">
-        <v>1</v>
-      </c>
-      <c r="X51" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI51" s="3" t="s">
+      <c r="W51" s="9">
+        <v>1</v>
+      </c>
+      <c r="X51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="AJ51" s="3"/>
-      <c r="AK51" s="3"/>
-      <c r="AL51" s="3"/>
-      <c r="AM51" s="3"/>
-      <c r="AN51" s="3"/>
-      <c r="AO51" s="3"/>
-      <c r="AP51" s="3"/>
-      <c r="AQ51" s="3"/>
-      <c r="AR51" s="3"/>
-      <c r="AS51" s="3"/>
-      <c r="AT51" s="3"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="9"/>
+      <c r="AN51" s="9"/>
+      <c r="AO51" s="9"/>
+      <c r="AP51" s="9"/>
+      <c r="AQ51" s="9"/>
+      <c r="AR51" s="9"/>
+      <c r="AS51" s="9"/>
+      <c r="AT51" s="9"/>
     </row>
     <row r="52" spans="1:46" ht="409.5" customHeight="1">
-      <c r="A52" s="3">
-        <v>9891</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3">
-        <v>2</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3">
-        <v>2</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="V52" s="3">
-        <v>1665657783</v>
-      </c>
-      <c r="W52" s="3">
-        <v>1</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI52" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ52" s="3"/>
-      <c r="AK52" s="3"/>
-      <c r="AL52" s="3"/>
-      <c r="AM52" s="3"/>
-      <c r="AN52" s="3"/>
-      <c r="AO52" s="3"/>
-      <c r="AP52" s="3"/>
-      <c r="AQ52" s="3"/>
-      <c r="AR52" s="3"/>
-      <c r="AS52" s="3"/>
-      <c r="AT52" s="3"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="10"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="10"/>
+      <c r="AQ52" s="10"/>
+      <c r="AR52" s="10"/>
+      <c r="AS52" s="10"/>
+      <c r="AT52" s="10"/>
     </row>
     <row r="53" spans="1:46" ht="409.5" customHeight="1">
       <c r="A53" s="3">
-        <v>9895</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+        <v>9891</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1670396400</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1670774400</v>
+      </c>
       <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3">
-        <v>302</v>
-      </c>
-      <c r="F53" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>513</v>
+      </c>
       <c r="G53" s="3">
         <v>2</v>
       </c>
@@ -7364,16 +7584,16 @@
         <v>469</v>
       </c>
       <c r="I53" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -7388,12 +7608,14 @@
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
+      <c r="T53" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="U53" s="3" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="V53" s="3">
-        <v>1671224400</v>
+        <v>1665657783</v>
       </c>
       <c r="W53" s="3">
         <v>1</v>
@@ -7426,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="AI53" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
@@ -7442,33 +7664,41 @@
     </row>
     <row r="54" spans="1:46" ht="409.5" customHeight="1">
       <c r="A54" s="3">
-        <v>9900</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+        <v>9895</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1671289200</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1671296400</v>
+      </c>
       <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="E54" s="3">
-        <v>103</v>
-      </c>
-      <c r="F54" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G54" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="I54" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="L54" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3">
@@ -7484,12 +7714,14 @@
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="V54" s="3">
-        <v>1670619600</v>
-      </c>
-      <c r="W54" s="3"/>
+        <v>1671224400</v>
+      </c>
+      <c r="W54" s="3">
+        <v>1</v>
+      </c>
       <c r="X54" s="3">
         <v>0</v>
       </c>
@@ -7518,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="AI54" s="3" t="s">
-        <v>447</v>
+        <v>171</v>
       </c>
       <c r="AJ54" s="3"/>
       <c r="AK54" s="3"/>
@@ -7534,31 +7766,37 @@
     </row>
     <row r="55" spans="1:46" ht="256.5" customHeight="1">
       <c r="A55" s="3">
-        <v>9921</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+        <v>9900</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1670677200</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1670684400</v>
+      </c>
       <c r="D55" s="3">
         <v>1</v>
       </c>
       <c r="E55" s="3">
         <v>103</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G55" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="I55" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>172</v>
+        <v>446</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -7576,14 +7814,12 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="V55" s="3">
         <v>1670619600</v>
       </c>
-      <c r="W55" s="3">
-        <v>1</v>
-      </c>
+      <c r="W55" s="3"/>
       <c r="X55" s="3">
         <v>0</v>
       </c>
@@ -7612,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="AI55" s="3" t="s">
-        <v>173</v>
+        <v>447</v>
       </c>
       <c r="AJ55" s="3"/>
       <c r="AK55" s="3"/>
@@ -7628,17 +7864,23 @@
     </row>
     <row r="56" spans="1:46" ht="57" customHeight="1">
       <c r="A56" s="3">
-        <v>9922</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+        <v>9921</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1670669100</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1670677200</v>
+      </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="E56" s="3">
-        <v>302</v>
-      </c>
-      <c r="F56" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G56" s="3">
         <v>2</v>
       </c>
@@ -7652,32 +7894,28 @@
         <v>470</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P56" s="3">
         <v>0</v>
       </c>
       <c r="Q56" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="V56" s="3">
-        <v>1671829200</v>
+        <v>1670619600</v>
       </c>
       <c r="W56" s="3">
         <v>1</v>
@@ -7710,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="AI56" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3"/>
@@ -7726,17 +7964,23 @@
     </row>
     <row r="57" spans="1:46" ht="409.5" customHeight="1">
       <c r="A57" s="3">
-        <v>9932</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+        <v>9922</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1671868800</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1671874200</v>
+      </c>
       <c r="D57" s="3">
         <v>1</v>
       </c>
       <c r="E57" s="3">
-        <v>103</v>
-      </c>
-      <c r="F57" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>514</v>
+      </c>
       <c r="G57" s="3">
         <v>2</v>
       </c>
@@ -7750,30 +7994,36 @@
         <v>470</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="V57" s="3">
-        <v>1671742800</v>
-      </c>
-      <c r="W57" s="3"/>
+        <v>1671829200</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1</v>
+      </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
@@ -7802,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="AI57" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
@@ -7818,17 +8068,23 @@
     </row>
     <row r="58" spans="1:46" ht="409.5" customHeight="1">
       <c r="A58" s="3">
-        <v>9935</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+        <v>9932</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1671796800</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1671804000</v>
+      </c>
       <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="3">
-        <v>302</v>
-      </c>
-      <c r="F58" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G58" s="3">
         <v>2</v>
       </c>
@@ -7842,7 +8098,7 @@
         <v>470</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -7860,14 +8116,12 @@
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="V58" s="3">
-        <v>1671483600</v>
-      </c>
-      <c r="W58" s="3">
-        <v>1</v>
-      </c>
+        <v>1671742800</v>
+      </c>
+      <c r="W58" s="3"/>
       <c r="X58" s="3">
         <v>0</v>
       </c>
@@ -7896,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="AI58" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AJ58" s="3"/>
       <c r="AK58" s="3"/>
@@ -7912,17 +8166,23 @@
     </row>
     <row r="59" spans="1:46" ht="128.25" customHeight="1">
       <c r="A59" s="3">
-        <v>9936</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+        <v>9935</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1671552000</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1671559200</v>
+      </c>
       <c r="D59" s="3">
-        <v>2</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>302</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>513</v>
+      </c>
       <c r="G59" s="3">
         <v>2</v>
       </c>
@@ -7930,17 +8190,15 @@
         <v>469</v>
       </c>
       <c r="I59" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>184</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3">
@@ -7956,12 +8214,14 @@
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="V59" s="3">
-        <v>1668435178</v>
-      </c>
-      <c r="W59" s="3"/>
+        <v>1671483600</v>
+      </c>
+      <c r="W59" s="3">
+        <v>1</v>
+      </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
@@ -7987,10 +8247,10 @@
         <v>0</v>
       </c>
       <c r="AH59" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3"/>
@@ -8006,17 +8266,23 @@
     </row>
     <row r="60" spans="1:46" ht="285" customHeight="1">
       <c r="A60" s="3">
-        <v>9939</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+        <v>9936</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1669878000</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1671987600</v>
+      </c>
       <c r="D60" s="3">
         <v>2</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F60" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G60" s="3">
         <v>2</v>
       </c>
@@ -8030,10 +8296,10 @@
         <v>504</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -8046,16 +8312,14 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="V60" s="3">
-        <v>1668504654</v>
+        <v>1668435178</v>
       </c>
       <c r="W60" s="3"/>
       <c r="X60" s="3">
@@ -8086,7 +8350,7 @@
         <v>2</v>
       </c>
       <c r="AI60" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AJ60" s="3"/>
       <c r="AK60" s="3"/>
@@ -8102,33 +8366,41 @@
     </row>
     <row r="61" spans="1:46" ht="156.75" customHeight="1">
       <c r="A61" s="3">
-        <v>9942</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+        <v>9939</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1671001200</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1671210000</v>
+      </c>
       <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3">
-        <v>103</v>
-      </c>
-      <c r="F61" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I61" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L61" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3">
@@ -8140,14 +8412,16 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-      <c r="R61" s="3"/>
+      <c r="R61" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="V61" s="3">
-        <v>1670965200</v>
+        <v>1668504654</v>
       </c>
       <c r="W61" s="3"/>
       <c r="X61" s="3">
@@ -8175,10 +8449,10 @@
         <v>0</v>
       </c>
       <c r="AH61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI61" s="3" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="AJ61" s="3"/>
       <c r="AK61" s="3"/>
@@ -8194,31 +8468,37 @@
     </row>
     <row r="62" spans="1:46" ht="409.5" customHeight="1">
       <c r="A62" s="3">
-        <v>9947</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+        <v>9942</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1671033600</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1671039000</v>
+      </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="E62" s="3">
         <v>103</v>
       </c>
-      <c r="F62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G62" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I62" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -8236,10 +8516,10 @@
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="V62" s="3">
-        <v>1671656400</v>
+        <v>1670965200</v>
       </c>
       <c r="W62" s="3"/>
       <c r="X62" s="3">
@@ -8270,7 +8550,7 @@
         <v>1</v>
       </c>
       <c r="AI62" s="3" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="3"/>
       <c r="AK62" s="3"/>
@@ -8286,31 +8566,37 @@
     </row>
     <row r="63" spans="1:46" ht="409.5" customHeight="1">
       <c r="A63" s="3">
-        <v>9948</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+        <v>9947</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1671725700</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1671732000</v>
+      </c>
       <c r="D63" s="3">
         <v>1</v>
       </c>
       <c r="E63" s="3">
-        <v>302</v>
-      </c>
-      <c r="F63" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I63" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -8328,14 +8614,12 @@
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="V63" s="3">
-        <v>1672002000</v>
-      </c>
-      <c r="W63" s="3">
-        <v>1</v>
-      </c>
+        <v>1671656400</v>
+      </c>
+      <c r="W63" s="3"/>
       <c r="X63" s="3">
         <v>0</v>
       </c>
@@ -8364,7 +8648,7 @@
         <v>1</v>
       </c>
       <c r="AI63" s="3" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="AJ63" s="3"/>
       <c r="AK63" s="3"/>
@@ -8378,60 +8662,60 @@
       <c r="AS63" s="3"/>
       <c r="AT63" s="3"/>
     </row>
-    <row r="64" spans="1:46" ht="409.5">
+    <row r="64" spans="1:46" ht="356.25">
       <c r="A64" s="3">
-        <v>9954</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+        <v>9948</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1672131600</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1672138800</v>
+      </c>
       <c r="D64" s="3">
-        <v>2</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F64" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>302</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G64" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I64" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>193</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="L64" s="3"/>
       <c r="M64" s="3"/>
-      <c r="N64" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="N64" s="3"/>
       <c r="O64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="3">
-        <v>20</v>
-      </c>
-      <c r="R64" s="3" t="s">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="V64" s="3">
-        <v>1668763361</v>
+        <v>1672002000</v>
       </c>
       <c r="W64" s="3">
         <v>1</v>
@@ -8440,11 +8724,9 @@
         <v>0</v>
       </c>
       <c r="Y64" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z64" s="3">
-        <v>1500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3"/>
       <c r="AA64" s="3">
         <v>0</v>
       </c>
@@ -8455,9 +8737,7 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-      <c r="AE64" s="3">
-        <v>1</v>
-      </c>
+      <c r="AE64" s="3"/>
       <c r="AF64" s="3">
         <v>0</v>
       </c>
@@ -8468,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="AI64" s="3" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="AJ64" s="3"/>
       <c r="AK64" s="3"/>
@@ -8484,17 +8764,23 @@
     </row>
     <row r="65" spans="1:46" ht="270.75" customHeight="1">
       <c r="A65" s="3">
-        <v>9964</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+        <v>9954</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1670742000</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1670706000</v>
+      </c>
       <c r="D65" s="3">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3">
-        <v>103</v>
-      </c>
-      <c r="F65" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G65" s="3">
         <v>2</v>
       </c>
@@ -8502,43 +8788,53 @@
         <v>469</v>
       </c>
       <c r="I65" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L65" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+      <c r="N65" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="O65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="3">
-        <v>0</v>
-      </c>
-      <c r="R65" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
       <c r="U65" s="3" t="s">
         <v>54</v>
       </c>
       <c r="V65" s="3">
-        <v>1671397200</v>
-      </c>
-      <c r="W65" s="3"/>
+        <v>1668763361</v>
+      </c>
+      <c r="W65" s="3">
+        <v>1</v>
+      </c>
       <c r="X65" s="3">
         <v>0</v>
       </c>
       <c r="Y65" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>1500</v>
+      </c>
       <c r="AA65" s="3">
         <v>0</v>
       </c>
@@ -8549,7 +8845,9 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-      <c r="AE65" s="3"/>
+      <c r="AE65" s="3">
+        <v>1</v>
+      </c>
       <c r="AF65" s="3">
         <v>0</v>
       </c>
@@ -8560,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="AI65" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AJ65" s="3"/>
       <c r="AK65" s="3"/>
@@ -8574,19 +8872,25 @@
       <c r="AS65" s="3"/>
       <c r="AT65" s="3"/>
     </row>
-    <row r="66" spans="1:46" ht="409.5">
+    <row r="66" spans="1:46" ht="71.25">
       <c r="A66" s="3">
-        <v>9966</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+        <v>9964</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1671465600</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1671471900</v>
+      </c>
       <c r="D66" s="3">
-        <v>2</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F66" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>103</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G66" s="3">
         <v>2</v>
       </c>
@@ -8594,17 +8898,15 @@
         <v>469</v>
       </c>
       <c r="I66" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>201</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3">
@@ -8616,16 +8918,14 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3" t="s">
         <v>54</v>
       </c>
       <c r="V66" s="3">
-        <v>1669233906</v>
+        <v>1671397200</v>
       </c>
       <c r="W66" s="3"/>
       <c r="X66" s="3">
@@ -8656,7 +8956,7 @@
         <v>1</v>
       </c>
       <c r="AI66" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AJ66" s="3"/>
       <c r="AK66" s="3"/>
@@ -8672,17 +8972,23 @@
     </row>
     <row r="67" spans="1:46" ht="85.5" customHeight="1">
       <c r="A67" s="3">
-        <v>9969</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+        <v>9966</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1670655600</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1670619600</v>
+      </c>
       <c r="D67" s="3">
         <v>2</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F67" s="3"/>
+        <v>199</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G67" s="3">
         <v>2</v>
       </c>
@@ -8690,16 +8996,16 @@
         <v>469</v>
       </c>
       <c r="I67" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -8712,18 +9018,18 @@
       <c r="Q67" s="3">
         <v>0</v>
       </c>
-      <c r="R67" s="3"/>
+      <c r="R67" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3" t="s">
         <v>54</v>
       </c>
       <c r="V67" s="3">
-        <v>1669272385</v>
-      </c>
-      <c r="W67" s="3">
-        <v>1</v>
-      </c>
+        <v>1669233906</v>
+      </c>
+      <c r="W67" s="3"/>
       <c r="X67" s="3">
         <v>0</v>
       </c>
@@ -8752,7 +9058,7 @@
         <v>1</v>
       </c>
       <c r="AI67" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AJ67" s="3"/>
       <c r="AK67" s="3"/>
@@ -8768,17 +9074,23 @@
     </row>
     <row r="68" spans="1:46" ht="409.5" customHeight="1">
       <c r="A68" s="3">
-        <v>9970</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+        <v>9969</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1669899600</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1669910400</v>
+      </c>
       <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>103</v>
-      </c>
-      <c r="F68" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G68" s="3">
         <v>2</v>
       </c>
@@ -8786,15 +9098,17 @@
         <v>469</v>
       </c>
       <c r="I68" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="L68" s="3"/>
+        <v>205</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3">
@@ -8810,12 +9124,14 @@
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="V68" s="3">
-        <v>1671224400</v>
-      </c>
-      <c r="W68" s="3"/>
+        <v>1669272385</v>
+      </c>
+      <c r="W68" s="3">
+        <v>1</v>
+      </c>
       <c r="X68" s="3">
         <v>0</v>
       </c>
@@ -8844,7 +9160,7 @@
         <v>1</v>
       </c>
       <c r="AI68" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AJ68" s="3"/>
       <c r="AK68" s="3"/>
@@ -8860,17 +9176,23 @@
     </row>
     <row r="69" spans="1:46" ht="409.5" customHeight="1">
       <c r="A69" s="3">
-        <v>9974</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+        <v>9970</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1671273000</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1671278400</v>
+      </c>
       <c r="D69" s="3">
-        <v>2</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F69" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>103</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G69" s="3">
         <v>2</v>
       </c>
@@ -8878,26 +9200,22 @@
         <v>469</v>
       </c>
       <c r="I69" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>213</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="L69" s="3"/>
       <c r="M69" s="3"/>
-      <c r="N69" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="N69" s="3"/>
       <c r="O69" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="3">
         <v>0</v>
@@ -8906,14 +9224,12 @@
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="V69" s="3">
-        <v>1669383607</v>
-      </c>
-      <c r="W69" s="3">
-        <v>1</v>
-      </c>
+        <v>1671224400</v>
+      </c>
+      <c r="W69" s="3"/>
       <c r="X69" s="3">
         <v>0</v>
       </c>
@@ -8942,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="AI69" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AJ69" s="3"/>
       <c r="AK69" s="3"/>
@@ -8958,56 +9274,62 @@
     </row>
     <row r="70" spans="1:46" ht="85.5" customHeight="1">
       <c r="A70" s="3">
-        <v>9976</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+        <v>9974</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1670050800</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1670101200</v>
+      </c>
       <c r="D70" s="3">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3">
-        <v>317</v>
-      </c>
-      <c r="F70" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G70" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="I70" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>411</v>
+        <v>212</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="N70" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="O70" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V70" s="3">
-        <v>1671138000</v>
+        <v>1669383607</v>
       </c>
       <c r="W70" s="3">
         <v>1</v>
@@ -9040,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="AI70" s="3" t="s">
-        <v>414</v>
+        <v>215</v>
       </c>
       <c r="AJ70" s="3"/>
       <c r="AK70" s="3"/>
@@ -9054,19 +9376,25 @@
       <c r="AS70" s="3"/>
       <c r="AT70" s="3"/>
     </row>
-    <row r="71" spans="1:46" ht="213.75">
+    <row r="71" spans="1:46" ht="370.5">
       <c r="A71" s="3">
-        <v>9977</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+        <v>9976</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1671201000</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1671211800</v>
+      </c>
       <c r="D71" s="3">
         <v>1</v>
       </c>
       <c r="E71" s="3">
         <v>317</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="G71" s="3">
         <v>4</v>
       </c>
@@ -9080,23 +9408,23 @@
         <v>507</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>413</v>
       </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P71" s="3">
         <v>0</v>
       </c>
       <c r="Q71" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
@@ -9105,7 +9433,7 @@
         <v>102</v>
       </c>
       <c r="V71" s="3">
-        <v>1671570000</v>
+        <v>1671138000</v>
       </c>
       <c r="W71" s="3">
         <v>1</v>
@@ -9152,19 +9480,25 @@
       <c r="AS71" s="3"/>
       <c r="AT71" s="3"/>
     </row>
-    <row r="72" spans="1:46" ht="199.5">
+    <row r="72" spans="1:46" ht="213.75">
       <c r="A72" s="3">
-        <v>9978</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+        <v>9977</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1671631200</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1671636600</v>
+      </c>
       <c r="D72" s="3">
         <v>1</v>
       </c>
       <c r="E72" s="3">
         <v>317</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="G72" s="3">
         <v>4</v>
       </c>
@@ -9178,10 +9512,10 @@
         <v>507</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>413</v>
@@ -9203,7 +9537,7 @@
         <v>102</v>
       </c>
       <c r="V72" s="3">
-        <v>1671742800</v>
+        <v>1671570000</v>
       </c>
       <c r="W72" s="3">
         <v>1</v>
@@ -9252,39 +9586,45 @@
     </row>
     <row r="73" spans="1:46" ht="409.5" customHeight="1">
       <c r="A73" s="3">
-        <v>9979</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+        <v>9978</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1671800700</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1671803700</v>
+      </c>
       <c r="D73" s="3">
-        <v>2</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F73" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>317</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="G73" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="I73" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3" t="s">
-        <v>219</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="N73" s="3"/>
       <c r="O73" s="3">
         <v>0</v>
       </c>
@@ -9298,10 +9638,10 @@
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
       <c r="U73" s="3" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="V73" s="3">
-        <v>1669627360</v>
+        <v>1671742800</v>
       </c>
       <c r="W73" s="3">
         <v>1</v>
@@ -9334,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="AI73" s="3" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
       <c r="AJ73" s="3"/>
       <c r="AK73" s="3"/>
@@ -9350,17 +9690,23 @@
     </row>
     <row r="74" spans="1:46" ht="409.5" customHeight="1">
       <c r="A74" s="3">
-        <v>9980</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+        <v>9979</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1670065200</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1670072400</v>
+      </c>
       <c r="D74" s="3">
         <v>2</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F74" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G74" s="3">
         <v>2</v>
       </c>
@@ -9368,29 +9714,29 @@
         <v>469</v>
       </c>
       <c r="I74" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O74" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P74" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
@@ -9399,7 +9745,7 @@
         <v>65</v>
       </c>
       <c r="V74" s="3">
-        <v>1669706956</v>
+        <v>1669627360</v>
       </c>
       <c r="W74" s="3">
         <v>1</v>
@@ -9432,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="AI74" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AJ74" s="3"/>
       <c r="AK74" s="3"/>
@@ -9448,17 +9794,23 @@
     </row>
     <row r="75" spans="1:46" ht="409.5">
       <c r="A75" s="3">
-        <v>9982</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+        <v>9980</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1670151600</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1670157000</v>
+      </c>
       <c r="D75" s="3">
         <v>2</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F75" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G75" s="3">
         <v>2</v>
       </c>
@@ -9466,36 +9818,38 @@
         <v>469</v>
       </c>
       <c r="I75" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
+      <c r="N75" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="O75" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P75" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q75" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
       <c r="U75" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="V75" s="3">
-        <v>1669710927</v>
+        <v>1669706956</v>
       </c>
       <c r="W75" s="3">
         <v>1</v>
@@ -9528,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="AI75" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AJ75" s="3"/>
       <c r="AK75" s="3"/>
@@ -9544,33 +9898,41 @@
     </row>
     <row r="76" spans="1:46" ht="409.5">
       <c r="A76" s="3">
-        <v>9983</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+        <v>9982</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1670061600</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1670068800</v>
+      </c>
       <c r="D76" s="3">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3">
-        <v>302</v>
-      </c>
-      <c r="F76" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I76" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L76" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3">
@@ -9586,12 +9948,14 @@
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="V76" s="3">
-        <v>1671138000</v>
-      </c>
-      <c r="W76" s="3"/>
+        <v>1669710927</v>
+      </c>
+      <c r="W76" s="3">
+        <v>1</v>
+      </c>
       <c r="X76" s="3">
         <v>0</v>
       </c>
@@ -9620,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="AI76" s="3" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="AJ76" s="3"/>
       <c r="AK76" s="3"/>
@@ -9636,17 +10000,23 @@
     </row>
     <row r="77" spans="1:46" ht="409.5">
       <c r="A77" s="3">
-        <v>9984</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+        <v>9983</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1671192000</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1671208200</v>
+      </c>
       <c r="D77" s="3">
         <v>1</v>
       </c>
       <c r="E77" s="3">
         <v>302</v>
       </c>
-      <c r="F77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G77" s="3">
         <v>1</v>
       </c>
@@ -9681,7 +10051,7 @@
         <v>38</v>
       </c>
       <c r="V77" s="3">
-        <v>1670878800</v>
+        <v>1671138000</v>
       </c>
       <c r="W77" s="3"/>
       <c r="X77" s="3">
@@ -9712,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="AI77" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ77" s="3"/>
       <c r="AK77" s="3"/>
@@ -9728,35 +10098,39 @@
     </row>
     <row r="78" spans="1:46" ht="409.5">
       <c r="A78" s="3">
-        <v>9987</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+        <v>9984</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1670942400</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1670949000</v>
+      </c>
       <c r="D78" s="3">
-        <v>2</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F78" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>302</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G78" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I78" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>231</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3">
@@ -9772,14 +10146,12 @@
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
       <c r="U78" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="V78" s="3">
-        <v>1670238546</v>
-      </c>
-      <c r="W78" s="3">
-        <v>1</v>
-      </c>
+        <v>1670878800</v>
+      </c>
+      <c r="W78" s="3"/>
       <c r="X78" s="3">
         <v>0</v>
       </c>
@@ -9808,7 +10180,7 @@
         <v>1</v>
       </c>
       <c r="AI78" s="3" t="s">
-        <v>232</v>
+        <v>99</v>
       </c>
       <c r="AJ78" s="3"/>
       <c r="AK78" s="3"/>
@@ -9824,17 +10196,23 @@
     </row>
     <row r="79" spans="1:46" ht="409.5">
       <c r="A79" s="3">
-        <v>9988</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+        <v>9987</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1670655600</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1670950800</v>
+      </c>
       <c r="D79" s="3">
         <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F79" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G79" s="3">
         <v>2</v>
       </c>
@@ -9842,16 +10220,16 @@
         <v>469</v>
       </c>
       <c r="I79" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -9871,9 +10249,11 @@
         <v>32</v>
       </c>
       <c r="V79" s="3">
-        <v>1670239591</v>
-      </c>
-      <c r="W79" s="3"/>
+        <v>1670238546</v>
+      </c>
+      <c r="W79" s="3">
+        <v>1</v>
+      </c>
       <c r="X79" s="3">
         <v>0</v>
       </c>
@@ -9902,7 +10282,7 @@
         <v>1</v>
       </c>
       <c r="AI79" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AJ79" s="3"/>
       <c r="AK79" s="3"/>
@@ -9918,38 +10298,42 @@
     </row>
     <row r="80" spans="1:46" ht="409.5" customHeight="1">
       <c r="A80" s="3">
-        <v>9989</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+        <v>9988</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1670407200</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1670410800</v>
+      </c>
       <c r="D80" s="3">
-        <v>1</v>
-      </c>
-      <c r="E80" s="3">
-        <v>302</v>
-      </c>
-      <c r="F80" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G80" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="I80" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>405</v>
+        <v>234</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>407</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3">
         <v>0</v>
@@ -9964,14 +10348,12 @@
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
       <c r="U80" s="3" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="V80" s="3">
-        <v>1671829200</v>
-      </c>
-      <c r="W80" s="3">
-        <v>1</v>
-      </c>
+        <v>1670239591</v>
+      </c>
+      <c r="W80" s="3"/>
       <c r="X80" s="3">
         <v>0</v>
       </c>
@@ -10000,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="AI80" s="3" t="s">
-        <v>408</v>
+        <v>236</v>
       </c>
       <c r="AJ80" s="3"/>
       <c r="AK80" s="3"/>
@@ -10016,36 +10398,44 @@
     </row>
     <row r="81" spans="1:46" ht="409.5" customHeight="1">
       <c r="A81" s="3">
-        <v>9990</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+        <v>9989</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1671876000</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1671879600</v>
+      </c>
       <c r="D81" s="3">
-        <v>2</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F81" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E81" s="3">
+        <v>302</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="G81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="I81" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="M81" s="3"/>
+        <v>406</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3">
         <v>0</v>
@@ -10056,27 +10446,25 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>240</v>
-      </c>
+      <c r="R81" s="3"/>
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
       <c r="U81" s="3" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="V81" s="3">
-        <v>1670263208</v>
-      </c>
-      <c r="W81" s="3"/>
+        <v>1671829200</v>
+      </c>
+      <c r="W81" s="3">
+        <v>1</v>
+      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3"/>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
@@ -10098,7 +10486,7 @@
         <v>1</v>
       </c>
       <c r="AI81" s="3" t="s">
-        <v>173</v>
+        <v>408</v>
       </c>
       <c r="AJ81" s="3"/>
       <c r="AK81" s="3"/>
@@ -10114,17 +10502,23 @@
     </row>
     <row r="82" spans="1:46" ht="409.5" customHeight="1">
       <c r="A82" s="3">
-        <v>9991</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+        <v>9990</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1670655600</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1671051600</v>
+      </c>
       <c r="D82" s="3">
         <v>2</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F82" s="3"/>
+        <v>237</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G82" s="3">
         <v>2</v>
       </c>
@@ -10132,32 +10526,30 @@
         <v>469</v>
       </c>
       <c r="I82" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M82" s="3"/>
-      <c r="N82" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="N82" s="3"/>
       <c r="O82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
@@ -10165,18 +10557,18 @@
         <v>54</v>
       </c>
       <c r="V82" s="3">
-        <v>1670263749</v>
-      </c>
-      <c r="W82" s="3">
-        <v>1</v>
-      </c>
+        <v>1670263208</v>
+      </c>
+      <c r="W82" s="3"/>
       <c r="X82" s="3">
         <v>0</v>
       </c>
       <c r="Y82" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z82" s="3">
+        <v>3000</v>
+      </c>
       <c r="AA82" s="3">
         <v>0</v>
       </c>
@@ -10187,9 +10579,7 @@
       <c r="AD82" s="3">
         <v>0</v>
       </c>
-      <c r="AE82" s="3">
-        <v>1</v>
-      </c>
+      <c r="AE82" s="3"/>
       <c r="AF82" s="3">
         <v>0</v>
       </c>
@@ -10200,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="AI82" s="3" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="AJ82" s="3"/>
       <c r="AK82" s="3"/>
@@ -10216,17 +10606,23 @@
     </row>
     <row r="83" spans="1:46" ht="409.5" customHeight="1">
       <c r="A83" s="3">
-        <v>9992</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+        <v>9991</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1670310000</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1670619600</v>
+      </c>
       <c r="D83" s="3">
         <v>2</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F83" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G83" s="3">
         <v>2</v>
       </c>
@@ -10234,36 +10630,40 @@
         <v>469</v>
       </c>
       <c r="I83" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
+      <c r="N83" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
       <c r="U83" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="V83" s="3">
-        <v>1670271024</v>
+        <v>1670263749</v>
       </c>
       <c r="W83" s="3">
         <v>1</v>
@@ -10285,7 +10685,9 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-      <c r="AE83" s="3"/>
+      <c r="AE83" s="3">
+        <v>1</v>
+      </c>
       <c r="AF83" s="3">
         <v>0</v>
       </c>
@@ -10293,10 +10695,10 @@
         <v>0</v>
       </c>
       <c r="AH83" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI83" s="3" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="AJ83" s="3"/>
       <c r="AK83" s="3"/>
@@ -10312,34 +10714,40 @@
     </row>
     <row r="84" spans="1:46" ht="409.5" customHeight="1">
       <c r="A84" s="3">
-        <v>9993</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+        <v>9992</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1670310000</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1670691600</v>
+      </c>
       <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G84" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I84" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
@@ -10356,10 +10764,10 @@
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="V84" s="3">
-        <v>1671656400</v>
+        <v>1670271024</v>
       </c>
       <c r="W84" s="3">
         <v>1</v>
@@ -10389,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="AH84" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI84" s="3" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="AJ84" s="3"/>
       <c r="AK84" s="3"/>
@@ -10407,329 +10815,245 @@
       <c r="AT84" s="3"/>
     </row>
     <row r="85" spans="1:46" ht="409.5" customHeight="1">
-      <c r="A85" s="3">
-        <v>9994</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3">
-        <v>1</v>
-      </c>
-      <c r="E85" s="3">
-        <v>301</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="3" t="s">
+      <c r="A85" s="9">
+        <v>9993</v>
+      </c>
+      <c r="B85" s="9">
+        <v>1671699600</v>
+      </c>
+      <c r="C85" s="9">
+        <v>1671706800</v>
+      </c>
+      <c r="D85" s="9">
+        <v>1</v>
+      </c>
+      <c r="E85" s="9">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1</v>
+      </c>
+      <c r="H85" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="9">
         <v>7</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="K85" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3">
-        <v>0</v>
-      </c>
-      <c r="P85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>0</v>
-      </c>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3" t="s">
+      <c r="K85" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9">
+        <v>0</v>
+      </c>
+      <c r="P85" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="9">
+        <v>0</v>
+      </c>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="V85" s="3">
-        <v>1671742800</v>
-      </c>
-      <c r="W85" s="3">
-        <v>1</v>
-      </c>
-      <c r="X85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="3"/>
-      <c r="AA85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE85" s="3"/>
-      <c r="AF85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH85" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI85" s="3" t="s">
+      <c r="V85" s="9">
+        <v>1671656400</v>
+      </c>
+      <c r="W85" s="9">
+        <v>1</v>
+      </c>
+      <c r="X85" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="9"/>
+      <c r="AC85" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="9"/>
+      <c r="AF85" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI85" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AJ85" s="3"/>
-      <c r="AK85" s="3"/>
-      <c r="AL85" s="3"/>
-      <c r="AM85" s="3"/>
-      <c r="AN85" s="3"/>
-      <c r="AO85" s="3"/>
-      <c r="AP85" s="3"/>
-      <c r="AQ85" s="3"/>
-      <c r="AR85" s="3"/>
-      <c r="AS85" s="3"/>
-      <c r="AT85" s="3"/>
+      <c r="AJ85" s="9"/>
+      <c r="AK85" s="9"/>
+      <c r="AL85" s="9"/>
+      <c r="AM85" s="9"/>
+      <c r="AN85" s="9"/>
+      <c r="AO85" s="9"/>
+      <c r="AP85" s="9"/>
+      <c r="AQ85" s="9"/>
+      <c r="AR85" s="9"/>
+      <c r="AS85" s="9"/>
+      <c r="AT85" s="9"/>
     </row>
-    <row r="86" spans="1:46" ht="409.5">
-      <c r="A86" s="3">
-        <v>9995</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3">
-        <v>2</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3">
-        <v>2</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="I86" s="3">
-        <v>1</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3">
-        <v>0</v>
-      </c>
-      <c r="P86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>0</v>
-      </c>
-      <c r="R86" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="V86" s="3">
-        <v>1670351080</v>
-      </c>
-      <c r="W86" s="3">
-        <v>1</v>
-      </c>
-      <c r="X86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z86" s="3">
-        <v>300</v>
-      </c>
-      <c r="AA86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="3"/>
-      <c r="AF86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH86" s="3">
-        <v>2</v>
-      </c>
-      <c r="AI86" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ86" s="3"/>
-      <c r="AK86" s="3"/>
-      <c r="AL86" s="3"/>
-      <c r="AM86" s="3"/>
-      <c r="AN86" s="3"/>
-      <c r="AO86" s="3"/>
-      <c r="AP86" s="3"/>
-      <c r="AQ86" s="3"/>
-      <c r="AR86" s="3"/>
-      <c r="AS86" s="3"/>
-      <c r="AT86" s="3"/>
+    <row r="86" spans="1:46" ht="28.5">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+      <c r="AA86" s="11"/>
+      <c r="AB86" s="11"/>
+      <c r="AC86" s="11"/>
+      <c r="AD86" s="11"/>
+      <c r="AE86" s="11"/>
+      <c r="AF86" s="11"/>
+      <c r="AG86" s="11"/>
+      <c r="AH86" s="11"/>
+      <c r="AI86" s="11"/>
+      <c r="AJ86" s="11"/>
+      <c r="AK86" s="11"/>
+      <c r="AL86" s="11"/>
+      <c r="AM86" s="11"/>
+      <c r="AN86" s="11"/>
+      <c r="AO86" s="11"/>
+      <c r="AP86" s="11"/>
+      <c r="AQ86" s="11"/>
+      <c r="AR86" s="11"/>
+      <c r="AS86" s="11"/>
+      <c r="AT86" s="11"/>
     </row>
-    <row r="87" spans="1:46" ht="356.25">
-      <c r="A87" s="3">
-        <v>9996</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3">
-        <v>1</v>
-      </c>
-      <c r="E87" s="3">
-        <v>302</v>
-      </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="I87" s="3">
-        <v>1</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3">
-        <v>0</v>
-      </c>
-      <c r="P87" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>0</v>
-      </c>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="V87" s="3">
-        <v>1670446800</v>
-      </c>
-      <c r="W87" s="3">
-        <v>1</v>
-      </c>
-      <c r="X87" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z87" s="3"/>
-      <c r="AA87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE87" s="3"/>
-      <c r="AF87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH87" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI87" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ87" s="3"/>
-      <c r="AK87" s="3"/>
-      <c r="AL87" s="3"/>
-      <c r="AM87" s="3"/>
-      <c r="AN87" s="3"/>
-      <c r="AO87" s="3"/>
-      <c r="AP87" s="3"/>
-      <c r="AQ87" s="3"/>
-      <c r="AR87" s="3"/>
-      <c r="AS87" s="3"/>
-      <c r="AT87" s="3"/>
+    <row r="87" spans="1:46" ht="28.5">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="10"/>
+      <c r="AH87" s="10"/>
+      <c r="AI87" s="10"/>
+      <c r="AJ87" s="10"/>
+      <c r="AK87" s="10"/>
+      <c r="AL87" s="10"/>
+      <c r="AM87" s="10"/>
+      <c r="AN87" s="10"/>
+      <c r="AO87" s="10"/>
+      <c r="AP87" s="10"/>
+      <c r="AQ87" s="10"/>
+      <c r="AR87" s="10"/>
+      <c r="AS87" s="10"/>
+      <c r="AT87" s="10"/>
     </row>
     <row r="88" spans="1:46" ht="409.5" customHeight="1">
       <c r="A88" s="3">
-        <v>9997</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+        <v>9994</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1671786000</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1671793200</v>
+      </c>
       <c r="D88" s="3">
         <v>1</v>
       </c>
       <c r="E88" s="3">
-        <v>336</v>
-      </c>
-      <c r="F88" s="3"/>
+        <v>301</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G88" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="I88" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>419</v>
+        <v>104</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>421</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3">
         <v>0</v>
@@ -10747,7 +11071,7 @@
         <v>102</v>
       </c>
       <c r="V88" s="3">
-        <v>1670965200</v>
+        <v>1671742800</v>
       </c>
       <c r="W88" s="3">
         <v>1</v>
@@ -10780,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="AI88" s="3" t="s">
-        <v>422</v>
+        <v>103</v>
       </c>
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
@@ -10796,56 +11120,62 @@
     </row>
     <row r="89" spans="1:46" ht="409.5" customHeight="1">
       <c r="A89" s="3">
-        <v>9998</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+        <v>9995</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1670396400</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1670432400</v>
+      </c>
       <c r="D89" s="3">
-        <v>1</v>
-      </c>
-      <c r="E89" s="3">
-        <v>336</v>
-      </c>
-      <c r="F89" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G89" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="I89" s="3">
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>423</v>
+        <v>251</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>425</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>12</v>
-      </c>
-      <c r="R89" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
       <c r="U89" s="3" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="V89" s="3">
-        <v>1671138000</v>
+        <v>1670351080</v>
       </c>
       <c r="W89" s="3">
         <v>1</v>
@@ -10854,9 +11184,11 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>300</v>
+      </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
@@ -10875,10 +11207,10 @@
         <v>0</v>
       </c>
       <c r="AH89" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI89" s="3" t="s">
-        <v>422</v>
+        <v>254</v>
       </c>
       <c r="AJ89" s="3"/>
       <c r="AK89" s="3"/>
@@ -10894,56 +11226,58 @@
     </row>
     <row r="90" spans="1:46" ht="242.25" customHeight="1">
       <c r="A90" s="3">
-        <v>9999</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+        <v>9996</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1670490000</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1670495400</v>
+      </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
       <c r="E90" s="3">
-        <v>336</v>
-      </c>
-      <c r="F90" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G90" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="I90" s="3">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>428</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P90" s="3">
         <v>0</v>
       </c>
       <c r="Q90" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="V90" s="3">
-        <v>1671397200</v>
+        <v>1670446800</v>
       </c>
       <c r="W90" s="3">
         <v>1</v>
@@ -10976,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="AI90" s="3" t="s">
-        <v>422</v>
+        <v>94</v>
       </c>
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
@@ -10992,34 +11326,44 @@
     </row>
     <row r="91" spans="1:46" ht="409.5" customHeight="1">
       <c r="A91" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+        <v>9997</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1671028800</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1671031500</v>
+      </c>
       <c r="D91" s="3">
         <v>1</v>
       </c>
       <c r="E91" s="3">
-        <v>102</v>
-      </c>
-      <c r="F91" s="3"/>
+        <v>336</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="G91" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="I91" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
+        <v>419</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>421</v>
+      </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3">
         <v>0</v>
@@ -11034,12 +11378,14 @@
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
       <c r="U91" s="3" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="V91" s="3">
-        <v>1670878800</v>
-      </c>
-      <c r="W91" s="3"/>
+        <v>1670965200</v>
+      </c>
+      <c r="W91" s="3">
+        <v>1</v>
+      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -11068,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="AI91" s="3" t="s">
-        <v>329</v>
+        <v>422</v>
       </c>
       <c r="AJ91" s="3"/>
       <c r="AK91" s="3"/>
@@ -11084,17 +11430,23 @@
     </row>
     <row r="92" spans="1:46" ht="409.5" customHeight="1">
       <c r="A92" s="3">
-        <v>10002</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+        <v>9998</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1671190200</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1671204600</v>
+      </c>
       <c r="D92" s="3">
         <v>1</v>
       </c>
       <c r="E92" s="3">
         <v>336</v>
       </c>
-      <c r="F92" s="3"/>
+      <c r="F92" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="G92" s="3">
         <v>4</v>
       </c>
@@ -11108,23 +11460,23 @@
         <v>507</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P92" s="3">
         <v>0</v>
       </c>
       <c r="Q92" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
@@ -11133,7 +11485,7 @@
         <v>102</v>
       </c>
       <c r="V92" s="3">
-        <v>1671742800</v>
+        <v>1671138000</v>
       </c>
       <c r="W92" s="3">
         <v>1</v>
@@ -11180,58 +11532,64 @@
       <c r="AS92" s="3"/>
       <c r="AT92" s="3"/>
     </row>
-    <row r="93" spans="1:46" ht="409.5">
+    <row r="93" spans="1:46" ht="171">
       <c r="A93" s="3">
-        <v>10003</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+        <v>9999</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1671455400</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1671461400</v>
+      </c>
       <c r="D93" s="3">
-        <v>2</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F93" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="3">
+        <v>336</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="G93" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="I93" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>256</v>
+        <v>426</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3" t="s">
-        <v>258</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N93" s="3"/>
       <c r="O93" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
       <c r="U93" s="3" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="V93" s="3">
-        <v>1670587705</v>
+        <v>1671397200</v>
       </c>
       <c r="W93" s="3">
         <v>1</v>
@@ -11264,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="AI93" s="3" t="s">
-        <v>259</v>
+        <v>422</v>
       </c>
       <c r="AJ93" s="3"/>
       <c r="AK93" s="3"/>
@@ -11278,43 +11636,45 @@
       <c r="AS93" s="3"/>
       <c r="AT93" s="3"/>
     </row>
-    <row r="94" spans="1:46" ht="409.5">
+    <row r="94" spans="1:46" ht="142.5">
       <c r="A94" s="3">
-        <v>10004</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+        <v>10000</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1670949900</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1670954400</v>
+      </c>
       <c r="D94" s="3">
-        <v>2</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F94" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>102</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G94" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="I94" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>261</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="L94" s="3"/>
       <c r="M94" s="3"/>
-      <c r="N94" s="3" t="s">
-        <v>262</v>
-      </c>
+      <c r="N94" s="3"/>
       <c r="O94" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -11326,14 +11686,12 @@
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
       <c r="U94" s="3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="V94" s="3">
-        <v>1670588582</v>
-      </c>
-      <c r="W94" s="3">
-        <v>1</v>
-      </c>
+        <v>1670878800</v>
+      </c>
+      <c r="W94" s="3"/>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -11362,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="AI94" s="3" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="AJ94" s="3"/>
       <c r="AK94" s="3"/>
@@ -11378,44 +11736,50 @@
     </row>
     <row r="95" spans="1:46" ht="409.5" customHeight="1">
       <c r="A95" s="3">
-        <v>10005</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+        <v>10002</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1671804000</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1671809400</v>
+      </c>
       <c r="D95" s="3">
-        <v>2</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F95" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="3">
+        <v>336</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="G95" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="I95" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>265</v>
+        <v>429</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3" t="s">
-        <v>267</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="N95" s="3"/>
       <c r="O95" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P95" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="3">
         <v>0</v>
@@ -11424,10 +11788,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="V95" s="3">
-        <v>1670589204</v>
+        <v>1671742800</v>
       </c>
       <c r="W95" s="3">
         <v>1</v>
@@ -11460,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="AI95" s="3" t="s">
-        <v>268</v>
+        <v>422</v>
       </c>
       <c r="AJ95" s="3"/>
       <c r="AK95" s="3"/>
@@ -11476,17 +11840,23 @@
     </row>
     <row r="96" spans="1:46" ht="409.5">
       <c r="A96" s="3">
-        <v>10006</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+        <v>10003</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1671361200</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1671310800</v>
+      </c>
       <c r="D96" s="3">
         <v>2</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F96" s="3"/>
+        <v>255</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G96" s="3">
         <v>2</v>
       </c>
@@ -11494,24 +11864,26 @@
         <v>469</v>
       </c>
       <c r="I96" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
+      <c r="N96" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
@@ -11520,10 +11892,10 @@
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
       <c r="U96" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="V96" s="3">
-        <v>1670614265</v>
+        <v>1670587705</v>
       </c>
       <c r="W96" s="3">
         <v>1</v>
@@ -11556,7 +11928,7 @@
         <v>1</v>
       </c>
       <c r="AI96" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="AJ96" s="3"/>
       <c r="AK96" s="3"/>
@@ -11572,17 +11944,23 @@
     </row>
     <row r="97" spans="1:46" ht="409.5">
       <c r="A97" s="3">
-        <v>10007</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+        <v>10004</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1671001200</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1671224400</v>
+      </c>
       <c r="D97" s="3">
         <v>2</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F97" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G97" s="3">
         <v>2</v>
       </c>
@@ -11590,40 +11968,38 @@
         <v>469</v>
       </c>
       <c r="I97" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="O97" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P97" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q97" s="3">
-        <v>20</v>
-      </c>
-      <c r="R97" s="3" t="s">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R97" s="3"/>
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
       <c r="U97" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="V97" s="3">
-        <v>1670614978</v>
+        <v>1670588582</v>
       </c>
       <c r="W97" s="3">
         <v>1</v>
@@ -11632,11 +12008,9 @@
         <v>0</v>
       </c>
       <c r="Y97" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z97" s="3">
-        <v>1500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3"/>
       <c r="AA97" s="3">
         <v>0</v>
       </c>
@@ -11658,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="AI97" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="AJ97" s="3"/>
       <c r="AK97" s="3"/>
@@ -11674,40 +12048,50 @@
     </row>
     <row r="98" spans="1:46" ht="409.5" customHeight="1">
       <c r="A98" s="3">
-        <v>10008</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+        <v>10005</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1671346800</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1671375600</v>
+      </c>
       <c r="D98" s="3">
-        <v>1</v>
-      </c>
-      <c r="E98" s="3">
-        <v>103</v>
-      </c>
-      <c r="F98" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G98" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="I98" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="L98" s="3"/>
+        <v>265</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
+      <c r="N98" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="O98" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P98" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q98" s="3">
         <v>0</v>
@@ -11719,9 +12103,11 @@
         <v>43</v>
       </c>
       <c r="V98" s="3">
-        <v>1671224400</v>
-      </c>
-      <c r="W98" s="3"/>
+        <v>1670589204</v>
+      </c>
+      <c r="W98" s="3">
+        <v>1</v>
+      </c>
       <c r="X98" s="3">
         <v>0</v>
       </c>
@@ -11750,7 +12136,7 @@
         <v>1</v>
       </c>
       <c r="AI98" s="3" t="s">
-        <v>453</v>
+        <v>268</v>
       </c>
       <c r="AJ98" s="3"/>
       <c r="AK98" s="3"/>
@@ -11766,39 +12152,45 @@
     </row>
     <row r="99" spans="1:46" ht="409.5" customHeight="1">
       <c r="A99" s="3">
-        <v>10009</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+        <v>10006</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1670662800</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1670670000</v>
+      </c>
       <c r="D99" s="3">
         <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3" t="s">
-        <v>510</v>
+        <v>269</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G99" s="3">
+        <v>2</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>469</v>
       </c>
       <c r="I99" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99" s="3">
         <v>0</v>
@@ -11806,31 +12198,25 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-      <c r="R99" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="S99" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="T99" s="3" t="s">
-        <v>283</v>
-      </c>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
       <c r="U99" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="V99" s="3">
-        <v>1670673691</v>
-      </c>
-      <c r="W99" s="3"/>
+        <v>1670614265</v>
+      </c>
+      <c r="W99" s="3">
+        <v>1</v>
+      </c>
       <c r="X99" s="3">
         <v>0</v>
       </c>
       <c r="Y99" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z99" s="3">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3"/>
       <c r="AA99" s="3">
         <v>0</v>
       </c>
@@ -11849,10 +12235,10 @@
         <v>0</v>
       </c>
       <c r="AH99" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI99" s="3" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
@@ -11868,17 +12254,23 @@
     </row>
     <row r="100" spans="1:46" ht="409.5">
       <c r="A100" s="3">
-        <v>10010</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+        <v>10007</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1670655600</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1671397200</v>
+      </c>
       <c r="D100" s="3">
         <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F100" s="3"/>
+        <v>273</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G100" s="3">
         <v>2</v>
       </c>
@@ -11886,51 +12278,53 @@
         <v>469</v>
       </c>
       <c r="I100" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
+      <c r="N100" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="O100" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>290</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
       <c r="U100" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="V100" s="3">
-        <v>1670675730</v>
-      </c>
-      <c r="W100" s="3"/>
+        <v>1670614978</v>
+      </c>
+      <c r="W100" s="3">
+        <v>1</v>
+      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>1500</v>
+      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
@@ -11952,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="AI100" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AJ100" s="3"/>
       <c r="AK100" s="3"/>
@@ -11966,37 +12360,41 @@
       <c r="AS100" s="3"/>
       <c r="AT100" s="3"/>
     </row>
-    <row r="101" spans="1:46" ht="409.5">
+    <row r="101" spans="1:46" ht="71.25">
       <c r="A101" s="3">
-        <v>10011</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+        <v>10008</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1671258600</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1671264000</v>
+      </c>
       <c r="D101" s="3">
-        <v>2</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F101" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="3">
+        <v>103</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G101" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="I101" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>293</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3">
@@ -12012,14 +12410,12 @@
       <c r="S101" s="3"/>
       <c r="T101" s="3"/>
       <c r="U101" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="V101" s="3">
-        <v>1670757330</v>
-      </c>
-      <c r="W101" s="3">
-        <v>1</v>
-      </c>
+        <v>1671224400</v>
+      </c>
+      <c r="W101" s="3"/>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -12048,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="AI101" s="3" t="s">
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="AJ101" s="3"/>
       <c r="AK101" s="3"/>
@@ -12064,39 +12460,45 @@
     </row>
     <row r="102" spans="1:46" ht="409.5" customHeight="1">
       <c r="A102" s="3">
-        <v>10013</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+        <v>10009</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1671001200</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1671138000</v>
+      </c>
       <c r="D102" s="3">
         <v>2</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F102" s="3"/>
+        <v>278</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G102" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="I102" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>433</v>
+        <v>279</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>434</v>
+        <v>280</v>
       </c>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -12104,23 +12506,31 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
+      <c r="R102" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="U102" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="V102" s="3">
-        <v>1670783120</v>
+        <v>1670673691</v>
       </c>
       <c r="W102" s="3"/>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>1000</v>
+      </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
@@ -12139,10 +12549,10 @@
         <v>0</v>
       </c>
       <c r="AH102" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI102" s="3" t="s">
-        <v>435</v>
+        <v>284</v>
       </c>
       <c r="AJ102" s="3"/>
       <c r="AK102" s="3"/>
@@ -12158,37 +12568,45 @@
     </row>
     <row r="103" spans="1:46" ht="409.5" customHeight="1">
       <c r="A103" s="3">
-        <v>10014</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+        <v>10010</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1670742000</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1670706000</v>
+      </c>
       <c r="D103" s="3">
-        <v>1</v>
-      </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G103" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I103" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L103" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" s="3">
         <v>0</v>
@@ -12196,18 +12614,22 @@
       <c r="Q103" s="3">
         <v>0</v>
       </c>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
+      <c r="R103" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="T103" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="U103" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="V103" s="3">
-        <v>1671483600</v>
-      </c>
-      <c r="W103" s="3">
-        <v>1</v>
-      </c>
+        <v>1670675730</v>
+      </c>
+      <c r="W103" s="3"/>
       <c r="X103" s="3">
         <v>0</v>
       </c>
@@ -12236,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="AI103" s="3" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="AJ103" s="3"/>
       <c r="AK103" s="3"/>
@@ -12252,17 +12674,23 @@
     </row>
     <row r="104" spans="1:46" ht="409.5" customHeight="1">
       <c r="A104" s="3">
-        <v>10015</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+        <v>10011</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1670758200</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1670765400</v>
+      </c>
       <c r="D104" s="3">
         <v>2</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F104" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G104" s="3">
         <v>2</v>
       </c>
@@ -12270,16 +12698,16 @@
         <v>469</v>
       </c>
       <c r="I104" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
@@ -12296,12 +12724,14 @@
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
       <c r="U104" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="V104" s="3">
-        <v>1670784948</v>
-      </c>
-      <c r="W104" s="3"/>
+        <v>1670757330</v>
+      </c>
+      <c r="W104" s="3">
+        <v>1</v>
+      </c>
       <c r="X104" s="3">
         <v>0</v>
       </c>
@@ -12330,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="AI104" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AJ104" s="3"/>
       <c r="AK104" s="3"/>
@@ -12346,33 +12776,41 @@
     </row>
     <row r="105" spans="1:46" ht="409.5" customHeight="1">
       <c r="A105" s="3">
-        <v>10017</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+        <v>10013</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1670832000</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1670846400</v>
+      </c>
       <c r="D105" s="3">
-        <v>1</v>
-      </c>
-      <c r="E105" s="3">
-        <v>103</v>
-      </c>
-      <c r="F105" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G105" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="I105" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="L105" s="3"/>
+        <v>433</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3">
@@ -12388,10 +12826,10 @@
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
       <c r="U105" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="V105" s="3">
-        <v>1671829200</v>
+        <v>1670783120</v>
       </c>
       <c r="W105" s="3"/>
       <c r="X105" s="3">
@@ -12422,7 +12860,7 @@
         <v>1</v>
       </c>
       <c r="AI105" s="3" t="s">
-        <v>299</v>
+        <v>435</v>
       </c>
       <c r="AJ105" s="3"/>
       <c r="AK105" s="3"/>
@@ -12438,35 +12876,39 @@
     </row>
     <row r="106" spans="1:46" ht="409.5">
       <c r="A106" s="3">
-        <v>10018</v>
-      </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+        <v>10014</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1671543000</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1671548400</v>
+      </c>
       <c r="D106" s="3">
-        <v>2</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F106" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G106" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I106" s="3">
         <v>3</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>302</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3">
@@ -12482,10 +12924,10 @@
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
       <c r="U106" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="V106" s="3">
-        <v>1670863701</v>
+        <v>1671483600</v>
       </c>
       <c r="W106" s="3">
         <v>1</v>
@@ -12518,7 +12960,7 @@
         <v>1</v>
       </c>
       <c r="AI106" s="3" t="s">
-        <v>303</v>
+        <v>110</v>
       </c>
       <c r="AJ106" s="3"/>
       <c r="AK106" s="3"/>
@@ -12534,17 +12976,23 @@
     </row>
     <row r="107" spans="1:46" ht="409.5">
       <c r="A107" s="3">
-        <v>10019</v>
-      </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+        <v>10015</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1671958800</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1671966000</v>
+      </c>
       <c r="D107" s="3">
         <v>2</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F107" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G107" s="3">
         <v>2</v>
       </c>
@@ -12558,10 +13006,10 @@
         <v>498</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
@@ -12578,14 +13026,12 @@
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
       <c r="U107" s="3" t="s">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="V107" s="3">
-        <v>1670873570</v>
-      </c>
-      <c r="W107" s="3">
-        <v>1</v>
-      </c>
+        <v>1670784948</v>
+      </c>
+      <c r="W107" s="3"/>
       <c r="X107" s="3">
         <v>0</v>
       </c>
@@ -12614,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="AI107" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AJ107" s="3"/>
       <c r="AK107" s="3"/>
@@ -12628,19 +13074,25 @@
       <c r="AS107" s="3"/>
       <c r="AT107" s="3"/>
     </row>
-    <row r="108" spans="1:46" ht="409.5">
+    <row r="108" spans="1:46" ht="242.25">
       <c r="A108" s="3">
-        <v>10021</v>
-      </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+        <v>10017</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1671894000</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1671901200</v>
+      </c>
       <c r="D108" s="3">
-        <v>2</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F108" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="3">
+        <v>103</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G108" s="3">
         <v>2</v>
       </c>
@@ -12648,21 +13100,19 @@
         <v>469</v>
       </c>
       <c r="I108" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>310</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="L108" s="3"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P108" s="3">
         <v>0</v>
@@ -12674,14 +13124,12 @@
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
       <c r="U108" s="3" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="V108" s="3">
-        <v>1670923967</v>
-      </c>
-      <c r="W108" s="3">
-        <v>1</v>
-      </c>
+        <v>1671829200</v>
+      </c>
+      <c r="W108" s="3"/>
       <c r="X108" s="3">
         <v>0</v>
       </c>
@@ -12710,7 +13158,7 @@
         <v>1</v>
       </c>
       <c r="AI108" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AJ108" s="3"/>
       <c r="AK108" s="3"/>
@@ -12726,34 +13174,40 @@
     </row>
     <row r="109" spans="1:46" ht="409.5" customHeight="1">
       <c r="A109" s="3">
-        <v>10022</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+        <v>10018</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1671274800</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1671282000</v>
+      </c>
       <c r="D109" s="3">
-        <v>1</v>
-      </c>
-      <c r="E109" s="3">
-        <v>1</v>
-      </c>
-      <c r="F109" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I109" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>111</v>
+        <v>302</v>
       </c>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
@@ -12770,10 +13224,10 @@
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
       <c r="U109" s="3" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="V109" s="3">
-        <v>1671397200</v>
+        <v>1670863701</v>
       </c>
       <c r="W109" s="3">
         <v>1</v>
@@ -12806,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="AI109" s="3" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="AJ109" s="3"/>
       <c r="AK109" s="3"/>
@@ -12822,34 +13276,40 @@
     </row>
     <row r="110" spans="1:46" ht="409.5" customHeight="1">
       <c r="A110" s="3">
-        <v>10023</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+        <v>10019</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1670940000</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1670950800</v>
+      </c>
       <c r="D110" s="3">
-        <v>1</v>
-      </c>
-      <c r="E110" s="3">
-        <v>241</v>
-      </c>
-      <c r="F110" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G110" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I110" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>114</v>
+        <v>306</v>
       </c>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
@@ -12866,10 +13326,10 @@
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
       <c r="U110" s="3" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="V110" s="3">
-        <v>1671483600</v>
+        <v>1670873570</v>
       </c>
       <c r="W110" s="3">
         <v>1</v>
@@ -12902,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="AI110" s="3" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="AJ110" s="3"/>
       <c r="AK110" s="3"/>
@@ -12918,39 +13378,45 @@
     </row>
     <row r="111" spans="1:46" ht="409.5" customHeight="1">
       <c r="A111" s="3">
-        <v>10024</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+        <v>10021</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1670828400</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1675026000</v>
+      </c>
       <c r="D111" s="3">
-        <v>1</v>
-      </c>
-      <c r="E111" s="3">
-        <v>241</v>
-      </c>
-      <c r="F111" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G111" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I111" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>116</v>
+        <v>309</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P111" s="3">
         <v>0</v>
@@ -12965,7 +13431,7 @@
         <v>112</v>
       </c>
       <c r="V111" s="3">
-        <v>1671570000</v>
+        <v>1670923967</v>
       </c>
       <c r="W111" s="3">
         <v>1</v>
@@ -12998,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="AI111" s="3" t="s">
-        <v>115</v>
+        <v>311</v>
       </c>
       <c r="AJ111" s="3"/>
       <c r="AK111" s="3"/>
@@ -13014,69 +13480,71 @@
     </row>
     <row r="112" spans="1:46" ht="409.5" customHeight="1">
       <c r="A112" s="3">
-        <v>10026</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+        <v>10022</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1671447600</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1671454800</v>
+      </c>
       <c r="D112" s="3">
-        <v>2</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F112" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I112" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>312</v>
+        <v>111</v>
       </c>
       <c r="M112" s="3"/>
-      <c r="N112" s="3" t="s">
-        <v>313</v>
-      </c>
+      <c r="N112" s="3"/>
       <c r="O112" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="3">
-        <v>20</v>
-      </c>
-      <c r="R112" s="3" t="s">
-        <v>314</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R112" s="3"/>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
       <c r="U112" s="3" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="V112" s="3">
-        <v>1670943995</v>
-      </c>
-      <c r="W112" s="3"/>
+        <v>1671397200</v>
+      </c>
+      <c r="W112" s="3">
+        <v>1</v>
+      </c>
       <c r="X112" s="3">
         <v>0</v>
       </c>
       <c r="Y112" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z112" s="3">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z112" s="3"/>
       <c r="AA112" s="3">
         <v>0</v>
       </c>
@@ -13098,7 +13566,7 @@
         <v>1</v>
       </c>
       <c r="AI112" s="3" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="AJ112" s="3"/>
       <c r="AK112" s="3"/>
@@ -13114,34 +13582,40 @@
     </row>
     <row r="113" spans="1:46" ht="409.5" customHeight="1">
       <c r="A113" s="3">
-        <v>10027</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+        <v>10023</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1671534000</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1671541200</v>
+      </c>
       <c r="D113" s="3">
-        <v>2</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F113" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>241</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G113" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I113" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>315</v>
+        <v>114</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>316</v>
+        <v>114</v>
       </c>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
@@ -13158,12 +13632,14 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
       <c r="U113" s="3" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="V113" s="3">
-        <v>1671181739</v>
-      </c>
-      <c r="W113" s="3"/>
+        <v>1671483600</v>
+      </c>
+      <c r="W113" s="3">
+        <v>1</v>
+      </c>
       <c r="X113" s="3">
         <v>0</v>
       </c>
@@ -13192,7 +13668,7 @@
         <v>1</v>
       </c>
       <c r="AI113" s="3" t="s">
-        <v>317</v>
+        <v>115</v>
       </c>
       <c r="AJ113" s="3"/>
       <c r="AK113" s="3"/>
@@ -13208,34 +13684,40 @@
     </row>
     <row r="114" spans="1:46" ht="409.5" customHeight="1">
       <c r="A114" s="3">
-        <v>10028</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+        <v>10024</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1671620400</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1671627600</v>
+      </c>
       <c r="D114" s="3">
-        <v>2</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F114" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="3">
+        <v>241</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G114" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I114" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>319</v>
+        <v>116</v>
       </c>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
@@ -13248,16 +13730,14 @@
       <c r="Q114" s="3">
         <v>0</v>
       </c>
-      <c r="R114" s="3" t="s">
-        <v>320</v>
-      </c>
+      <c r="R114" s="3"/>
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
       <c r="U114" s="3" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="V114" s="3">
-        <v>1671223731</v>
+        <v>1671570000</v>
       </c>
       <c r="W114" s="3">
         <v>1</v>
@@ -13287,10 +13767,10 @@
         <v>0</v>
       </c>
       <c r="AH114" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI114" s="3" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="AJ114" s="3"/>
       <c r="AK114" s="3"/>
@@ -13306,17 +13786,23 @@
     </row>
     <row r="115" spans="1:46" ht="409.5">
       <c r="A115" s="3">
-        <v>10029</v>
-      </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+        <v>10026</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1670944500</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1671051600</v>
+      </c>
       <c r="D115" s="3">
         <v>2</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F115" s="3"/>
+        <v>237</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G115" s="3">
         <v>2</v>
       </c>
@@ -13324,47 +13810,51 @@
         <v>469</v>
       </c>
       <c r="I115" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>322</v>
+        <v>238</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
+      <c r="N115" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="O115" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
       <c r="U115" s="3" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="V115" s="3">
-        <v>1671224128</v>
+        <v>1670943995</v>
       </c>
       <c r="W115" s="3"/>
       <c r="X115" s="3">
         <v>0</v>
       </c>
       <c r="Y115" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z115" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z115" s="3">
+        <v>3000</v>
+      </c>
       <c r="AA115" s="3">
         <v>0</v>
       </c>
@@ -13383,10 +13873,10 @@
         <v>0</v>
       </c>
       <c r="AH115" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI115" s="3" t="s">
-        <v>325</v>
+        <v>173</v>
       </c>
       <c r="AJ115" s="3"/>
       <c r="AK115" s="3"/>
@@ -13402,17 +13892,23 @@
     </row>
     <row r="116" spans="1:46" ht="409.5" customHeight="1">
       <c r="A116" s="3">
-        <v>10031</v>
-      </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+        <v>10027</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1671271200</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1671278400</v>
+      </c>
       <c r="D116" s="3">
         <v>2</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F116" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G116" s="3">
         <v>2</v>
       </c>
@@ -13420,16 +13916,16 @@
         <v>469</v>
       </c>
       <c r="I116" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
@@ -13446,10 +13942,10 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
       <c r="U116" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="V116" s="3">
-        <v>1671273490</v>
+        <v>1671181739</v>
       </c>
       <c r="W116" s="3"/>
       <c r="X116" s="3">
@@ -13480,7 +13976,7 @@
         <v>1</v>
       </c>
       <c r="AI116" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="AJ116" s="3"/>
       <c r="AK116" s="3"/>
@@ -13496,17 +13992,23 @@
     </row>
     <row r="117" spans="1:46" ht="171" customHeight="1">
       <c r="A117" s="3">
-        <v>10034</v>
-      </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+        <v>10028</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1671260400</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1671296400</v>
+      </c>
       <c r="D117" s="3">
         <v>2</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F117" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G117" s="3">
         <v>2</v>
       </c>
@@ -13514,16 +14016,16 @@
         <v>469</v>
       </c>
       <c r="I117" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
@@ -13536,16 +14038,20 @@
       <c r="Q117" s="3">
         <v>0</v>
       </c>
-      <c r="R117" s="3"/>
+      <c r="R117" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
       <c r="U117" s="3" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="V117" s="3">
-        <v>1671280964</v>
-      </c>
-      <c r="W117" s="3"/>
+        <v>1671223731</v>
+      </c>
+      <c r="W117" s="3">
+        <v>1</v>
+      </c>
       <c r="X117" s="3">
         <v>0</v>
       </c>
@@ -13571,10 +14077,10 @@
         <v>0</v>
       </c>
       <c r="AH117" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI117" s="3" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AJ117" s="3"/>
       <c r="AK117" s="3"/>
@@ -13590,17 +14096,23 @@
     </row>
     <row r="118" spans="1:46" ht="399" customHeight="1">
       <c r="A118" s="3">
-        <v>10035</v>
-      </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+        <v>10029</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1671519600</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1671555600</v>
+      </c>
       <c r="D118" s="3">
         <v>2</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F118" s="3"/>
+      <c r="F118" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G118" s="3">
         <v>2</v>
       </c>
@@ -13614,10 +14126,10 @@
         <v>504</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
@@ -13631,7 +14143,7 @@
         <v>0</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
@@ -13639,7 +14151,7 @@
         <v>209</v>
       </c>
       <c r="V118" s="3">
-        <v>1671283926</v>
+        <v>1671224128</v>
       </c>
       <c r="W118" s="3"/>
       <c r="X118" s="3">
@@ -13670,7 +14182,7 @@
         <v>2</v>
       </c>
       <c r="AI118" s="3" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="AJ118" s="3"/>
       <c r="AK118" s="3"/>
@@ -13686,17 +14198,23 @@
     </row>
     <row r="119" spans="1:46" ht="156.75" customHeight="1">
       <c r="A119" s="3">
-        <v>10036</v>
-      </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+        <v>10031</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1671282000</v>
+      </c>
+      <c r="C119" s="3">
+        <v>1671292800</v>
+      </c>
       <c r="D119" s="3">
         <v>2</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F119" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G119" s="3">
         <v>2</v>
       </c>
@@ -13704,16 +14222,16 @@
         <v>469</v>
       </c>
       <c r="I119" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
@@ -13726,29 +14244,23 @@
       <c r="Q119" s="3">
         <v>0</v>
       </c>
-      <c r="R119" s="3" t="s">
-        <v>340</v>
-      </c>
+      <c r="R119" s="3"/>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
       <c r="U119" s="3" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="V119" s="3">
-        <v>1671284392</v>
-      </c>
-      <c r="W119" s="3">
-        <v>1</v>
-      </c>
+        <v>1671273490</v>
+      </c>
+      <c r="W119" s="3"/>
       <c r="X119" s="3">
         <v>0</v>
       </c>
       <c r="Y119" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z119" s="3" t="s">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z119" s="3"/>
       <c r="AA119" s="3">
         <v>0</v>
       </c>
@@ -13767,10 +14279,10 @@
         <v>0</v>
       </c>
       <c r="AH119" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI119" s="3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="AJ119" s="3"/>
       <c r="AK119" s="3"/>
@@ -13786,17 +14298,23 @@
     </row>
     <row r="120" spans="1:46" ht="409.5" customHeight="1">
       <c r="A120" s="3">
-        <v>10037</v>
-      </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+        <v>10034</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1672315200</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1672320600</v>
+      </c>
       <c r="D120" s="3">
         <v>2</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F120" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G120" s="3">
         <v>2</v>
       </c>
@@ -13804,26 +14322,24 @@
         <v>469</v>
       </c>
       <c r="I120" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="M120" s="3"/>
-      <c r="N120" s="3" t="s">
-        <v>345</v>
-      </c>
+      <c r="N120" s="3"/>
       <c r="O120" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P120" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q120" s="3">
         <v>0</v>
@@ -13832,23 +14348,19 @@
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
       <c r="U120" s="3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="V120" s="3">
-        <v>1671377006</v>
-      </c>
-      <c r="W120" s="3">
-        <v>1</v>
-      </c>
+        <v>1671280964</v>
+      </c>
+      <c r="W120" s="3"/>
       <c r="X120" s="3">
         <v>0</v>
       </c>
       <c r="Y120" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z120" s="3">
-        <v>1500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z120" s="3"/>
       <c r="AA120" s="3">
         <v>0</v>
       </c>
@@ -13870,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="AI120" s="3" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="AJ120" s="3"/>
       <c r="AK120" s="3"/>
@@ -13886,17 +14398,23 @@
     </row>
     <row r="121" spans="1:46" ht="370.5" customHeight="1">
       <c r="A121" s="3">
-        <v>10038</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+        <v>10035</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1671692400</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1671728400</v>
+      </c>
       <c r="D121" s="3">
         <v>2</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F121" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G121" s="3">
         <v>2</v>
       </c>
@@ -13904,49 +14422,47 @@
         <v>469</v>
       </c>
       <c r="I121" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="M121" s="3"/>
-      <c r="N121" s="3" t="s">
-        <v>350</v>
-      </c>
+      <c r="N121" s="3"/>
       <c r="O121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121" s="3">
         <v>0</v>
       </c>
-      <c r="R121" s="3"/>
+      <c r="R121" s="3" t="s">
+        <v>336</v>
+      </c>
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
       <c r="U121" s="3" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="V121" s="3">
-        <v>1671432941</v>
+        <v>1671283926</v>
       </c>
       <c r="W121" s="3"/>
       <c r="X121" s="3">
         <v>0</v>
       </c>
       <c r="Y121" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z121" s="3">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z121" s="3"/>
       <c r="AA121" s="3">
         <v>0</v>
       </c>
@@ -13965,10 +14481,10 @@
         <v>0</v>
       </c>
       <c r="AH121" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI121" s="3" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="AJ121" s="3"/>
       <c r="AK121" s="3"/>
@@ -13984,17 +14500,23 @@
     </row>
     <row r="122" spans="1:46" ht="213.75" customHeight="1">
       <c r="A122" s="3">
-        <v>10039</v>
-      </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+        <v>10036</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1671519600</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1671555600</v>
+      </c>
       <c r="D122" s="3">
         <v>2</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F122" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G122" s="3">
         <v>2</v>
       </c>
@@ -14008,46 +14530,44 @@
         <v>504</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="M122" s="3"/>
-      <c r="N122" s="3" t="s">
-        <v>355</v>
-      </c>
+      <c r="N122" s="3"/>
       <c r="O122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122" s="3">
         <v>0</v>
       </c>
-      <c r="R122" s="3"/>
-      <c r="S122" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="T122" s="3" t="s">
-        <v>357</v>
-      </c>
+      <c r="R122" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
       <c r="U122" s="3" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="V122" s="3">
-        <v>1671445441</v>
-      </c>
-      <c r="W122" s="3"/>
+        <v>1671284392</v>
+      </c>
+      <c r="W122" s="3">
+        <v>1</v>
+      </c>
       <c r="X122" s="3">
         <v>0</v>
       </c>
       <c r="Y122" s="3">
         <v>1</v>
       </c>
-      <c r="Z122" s="3">
-        <v>790</v>
+      <c r="Z122" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="AA122" s="3">
         <v>0</v>
@@ -14070,7 +14590,7 @@
         <v>2</v>
       </c>
       <c r="AI122" s="3" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="AJ122" s="3"/>
       <c r="AK122" s="3"/>
@@ -14086,17 +14606,23 @@
     </row>
     <row r="123" spans="1:46" ht="199.5" customHeight="1">
       <c r="A123" s="3">
-        <v>10040</v>
-      </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+        <v>10037</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1671382800</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1671386400</v>
+      </c>
       <c r="D123" s="3">
         <v>2</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F123" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G123" s="3">
         <v>2</v>
       </c>
@@ -14104,24 +14630,26 @@
         <v>469</v>
       </c>
       <c r="I123" s="3">
+        <v>4</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="O123" s="3">
         <v>3</v>
       </c>
-      <c r="J123" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
-      <c r="O123" s="3">
-        <v>0</v>
-      </c>
       <c r="P123" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q123" s="3">
         <v>0</v>
@@ -14130,10 +14658,10 @@
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
       <c r="U123" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="V123" s="3">
-        <v>1671449603</v>
+        <v>1671377006</v>
       </c>
       <c r="W123" s="3">
         <v>1</v>
@@ -14142,9 +14670,11 @@
         <v>0</v>
       </c>
       <c r="Y123" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z123" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z123" s="3">
+        <v>1500</v>
+      </c>
       <c r="AA123" s="3">
         <v>0</v>
       </c>
@@ -14166,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="AI123" s="3" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AJ123" s="3"/>
       <c r="AK123" s="3"/>
@@ -14182,17 +14712,23 @@
     </row>
     <row r="124" spans="1:46" ht="171" customHeight="1">
       <c r="A124" s="3">
-        <v>10041</v>
-      </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+        <v>10038</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1671876000</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1671883200</v>
+      </c>
       <c r="D124" s="3">
         <v>2</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F124" s="3"/>
+        <v>347</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G124" s="3">
         <v>2</v>
       </c>
@@ -14200,24 +14736,26 @@
         <v>469</v>
       </c>
       <c r="I124" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
+      <c r="N124" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="O124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124" s="3">
         <v>0</v>
@@ -14226,19 +14764,21 @@
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
       <c r="U124" s="3" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="V124" s="3">
-        <v>1671454801</v>
+        <v>1671432941</v>
       </c>
       <c r="W124" s="3"/>
       <c r="X124" s="3">
         <v>0</v>
       </c>
       <c r="Y124" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z124" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z124" s="3">
+        <v>1000</v>
+      </c>
       <c r="AA124" s="3">
         <v>0</v>
       </c>
@@ -14260,7 +14800,7 @@
         <v>1</v>
       </c>
       <c r="AI124" s="3" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="AJ124" s="3"/>
       <c r="AK124" s="3"/>
@@ -14276,17 +14816,23 @@
     </row>
     <row r="125" spans="1:46" ht="171" customHeight="1">
       <c r="A125" s="3">
-        <v>10042</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+        <v>10039</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1671451200</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1671469200</v>
+      </c>
       <c r="D125" s="3">
         <v>2</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F125" s="3"/>
+        <v>352</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G125" s="3">
         <v>2</v>
       </c>
@@ -14300,36 +14846,38 @@
         <v>504</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
+      <c r="N125" s="3" t="s">
+        <v>355</v>
+      </c>
       <c r="O125" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P125" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125" s="3">
         <v>0</v>
       </c>
-      <c r="R125" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="S125" s="3"/>
-      <c r="T125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="T125" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="U125" s="3" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="V125" s="3">
-        <v>1671472698</v>
-      </c>
-      <c r="W125" s="3">
-        <v>1</v>
-      </c>
+        <v>1671445441</v>
+      </c>
+      <c r="W125" s="3"/>
       <c r="X125" s="3">
         <v>0</v>
       </c>
@@ -14337,7 +14885,7 @@
         <v>1</v>
       </c>
       <c r="Z125" s="3">
-        <v>350</v>
+        <v>790</v>
       </c>
       <c r="AA125" s="3">
         <v>0</v>
@@ -14360,7 +14908,7 @@
         <v>2</v>
       </c>
       <c r="AI125" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AJ125" s="3"/>
       <c r="AK125" s="3"/>
@@ -14376,17 +14924,23 @@
     </row>
     <row r="126" spans="1:46" ht="171" customHeight="1">
       <c r="A126" s="3">
-        <v>10043</v>
-      </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+        <v>10040</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1671458400</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1671465600</v>
+      </c>
       <c r="D126" s="3">
         <v>2</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F126" s="3"/>
+        <v>359</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="G126" s="3">
         <v>2</v>
       </c>
@@ -14394,21 +14948,21 @@
         <v>469</v>
       </c>
       <c r="I126" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P126" s="3">
         <v>0</v>
@@ -14416,27 +14970,25 @@
       <c r="Q126" s="3">
         <v>0</v>
       </c>
-      <c r="R126" s="3" t="s">
-        <v>374</v>
-      </c>
+      <c r="R126" s="3"/>
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
       <c r="U126" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="V126" s="3">
-        <v>1671609777</v>
-      </c>
-      <c r="W126" s="3"/>
+        <v>1671449603</v>
+      </c>
+      <c r="W126" s="3">
+        <v>1</v>
+      </c>
       <c r="X126" s="3">
         <v>0</v>
       </c>
       <c r="Y126" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z126" s="4">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z126" s="3"/>
       <c r="AA126" s="3">
         <v>0</v>
       </c>
@@ -14455,10 +15007,10 @@
         <v>0</v>
       </c>
       <c r="AH126" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI126" s="3" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="AJ126" s="3"/>
       <c r="AK126" s="3"/>
@@ -14474,17 +15026,23 @@
     </row>
     <row r="127" spans="1:46" ht="171" customHeight="1">
       <c r="A127" s="3">
-        <v>10044</v>
-      </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+        <v>10041</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1671606000</v>
+      </c>
+      <c r="C127" s="3">
+        <v>1671616800</v>
+      </c>
       <c r="D127" s="3">
         <v>2</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F127" s="3"/>
+        <v>363</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G127" s="3">
         <v>2</v>
       </c>
@@ -14498,10 +15056,10 @@
         <v>501</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
@@ -14521,7 +15079,7 @@
         <v>209</v>
       </c>
       <c r="V127" s="3">
-        <v>1671633496</v>
+        <v>1671454801</v>
       </c>
       <c r="W127" s="3"/>
       <c r="X127" s="3">
@@ -14552,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AI127" s="3" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="AJ127" s="3"/>
       <c r="AK127" s="3"/>
@@ -14568,17 +15126,23 @@
     </row>
     <row r="128" spans="1:46" ht="409.5" customHeight="1">
       <c r="A128" s="3">
-        <v>10045</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+        <v>10042</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1671472800</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1671476400</v>
+      </c>
       <c r="D128" s="3">
         <v>2</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F128" s="3"/>
+      <c r="F128" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G128" s="3">
         <v>2</v>
       </c>
@@ -14592,10 +15156,10 @@
         <v>504</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
@@ -14609,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="R128" s="3" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
@@ -14617,16 +15181,20 @@
         <v>209</v>
       </c>
       <c r="V128" s="3">
-        <v>1671633678</v>
-      </c>
-      <c r="W128" s="3"/>
+        <v>1671472698</v>
+      </c>
+      <c r="W128" s="3">
+        <v>1</v>
+      </c>
       <c r="X128" s="3">
         <v>0</v>
       </c>
       <c r="Y128" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z128" s="3">
+        <v>350</v>
+      </c>
       <c r="AA128" s="3">
         <v>0</v>
       </c>
@@ -14648,7 +15216,7 @@
         <v>2</v>
       </c>
       <c r="AI128" s="3" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="AJ128" s="3"/>
       <c r="AK128" s="3"/>
@@ -14664,17 +15232,23 @@
     </row>
     <row r="129" spans="1:46" ht="409.5" customHeight="1">
       <c r="A129" s="3">
-        <v>10046</v>
-      </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+        <v>10043</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1671519600</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1671555600</v>
+      </c>
       <c r="D129" s="3">
         <v>2</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F129" s="3"/>
+        <v>371</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G129" s="3">
         <v>2</v>
       </c>
@@ -14682,21 +15256,21 @@
         <v>469</v>
       </c>
       <c r="I129" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P129" s="3">
         <v>0</v>
@@ -14704,23 +15278,27 @@
       <c r="Q129" s="3">
         <v>0</v>
       </c>
-      <c r="R129" s="3"/>
+      <c r="R129" s="3" t="s">
+        <v>374</v>
+      </c>
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
       <c r="U129" s="3" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="V129" s="3">
-        <v>1671654340</v>
+        <v>1671609777</v>
       </c>
       <c r="W129" s="3"/>
       <c r="X129" s="3">
         <v>0</v>
       </c>
       <c r="Y129" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z129" s="4">
+        <v>700</v>
+      </c>
       <c r="AA129" s="3">
         <v>0</v>
       </c>
@@ -14739,10 +15317,10 @@
         <v>0</v>
       </c>
       <c r="AH129" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI129" s="3" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="AJ129" s="3"/>
       <c r="AK129" s="3"/>
@@ -14758,17 +15336,23 @@
     </row>
     <row r="130" spans="1:46" ht="142.5" customHeight="1">
       <c r="A130" s="3">
-        <v>10047</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+        <v>10044</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1671958800</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1671964200</v>
+      </c>
       <c r="D130" s="3">
         <v>2</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F130" s="3"/>
+        <v>376</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G130" s="3">
         <v>2</v>
       </c>
@@ -14782,10 +15366,10 @@
         <v>501</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
@@ -14802,10 +15386,10 @@
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
       <c r="U130" s="3" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="V130" s="3">
-        <v>1671654660</v>
+        <v>1671633496</v>
       </c>
       <c r="W130" s="3"/>
       <c r="X130" s="3">
@@ -14836,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="AI130" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AJ130" s="3"/>
       <c r="AK130" s="3"/>
@@ -14852,19 +15436,25 @@
     </row>
     <row r="131" spans="1:46" ht="128.25" customHeight="1">
       <c r="A131" s="3">
-        <v>10048</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+        <v>10045</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1671634800</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1671642000</v>
+      </c>
       <c r="D131" s="3">
         <v>2</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3" t="s">
-        <v>510</v>
+        <v>250</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G131" s="3">
+        <v>2</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>469</v>
@@ -14876,15 +15466,13 @@
         <v>504</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M131" s="3"/>
-      <c r="N131" s="3" t="s">
-        <v>389</v>
-      </c>
+      <c r="N131" s="3"/>
       <c r="O131" s="3">
         <v>0</v>
       </c>
@@ -14894,29 +15482,25 @@
       <c r="Q131" s="3">
         <v>0</v>
       </c>
-      <c r="R131" s="3"/>
-      <c r="S131" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="T131" s="3" t="s">
-        <v>283</v>
-      </c>
+      <c r="R131" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
       <c r="U131" s="3" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="V131" s="3">
-        <v>1671697484</v>
+        <v>1671633678</v>
       </c>
       <c r="W131" s="3"/>
       <c r="X131" s="3">
         <v>0</v>
       </c>
       <c r="Y131" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z131" s="3">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z131" s="3"/>
       <c r="AA131" s="3">
         <v>0</v>
       </c>
@@ -14938,7 +15522,7 @@
         <v>2</v>
       </c>
       <c r="AI131" s="3" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="AJ131" s="3"/>
       <c r="AK131" s="3"/>
@@ -14954,34 +15538,40 @@
     </row>
     <row r="132" spans="1:46" ht="142.5" customHeight="1">
       <c r="A132" s="3">
-        <v>10049</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+        <v>10046</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1671696000</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1671656400</v>
+      </c>
       <c r="D132" s="3">
         <v>2</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3" t="s">
-        <v>510</v>
+        <v>383</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" s="3">
+        <v>2</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>469</v>
       </c>
       <c r="I132" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
@@ -14994,31 +15584,23 @@
       <c r="Q132" s="3">
         <v>0</v>
       </c>
-      <c r="R132" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="S132" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="T132" s="3" t="s">
-        <v>395</v>
-      </c>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
       <c r="U132" s="3" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="V132" s="3">
-        <v>1671697601</v>
+        <v>1671654340</v>
       </c>
       <c r="W132" s="3"/>
       <c r="X132" s="3">
         <v>0</v>
       </c>
       <c r="Y132" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z132" s="3">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z132" s="3"/>
       <c r="AA132" s="3">
         <v>0</v>
       </c>
@@ -15037,10 +15619,10 @@
         <v>0</v>
       </c>
       <c r="AH132" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI132" s="3" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="AJ132" s="3"/>
       <c r="AK132" s="3"/>
@@ -15056,17 +15638,23 @@
     </row>
     <row r="133" spans="1:46" ht="128.25" customHeight="1">
       <c r="A133" s="3">
-        <v>10050</v>
-      </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+        <v>10047</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1671696000</v>
+      </c>
+      <c r="C133" s="3">
+        <v>1671656400</v>
+      </c>
       <c r="D133" s="3">
         <v>2</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F133" s="3"/>
+        <v>383</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G133" s="3">
         <v>2</v>
       </c>
@@ -15080,10 +15668,10 @@
         <v>501</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
@@ -15100,10 +15688,10 @@
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
       <c r="U133" s="3" t="s">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="V133" s="3">
-        <v>1671915861</v>
+        <v>1671654660</v>
       </c>
       <c r="W133" s="3"/>
       <c r="X133" s="3">
@@ -15134,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="AI133" s="3" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="AJ133" s="3"/>
       <c r="AK133" s="3"/>
@@ -15150,17 +15738,23 @@
     </row>
     <row r="134" spans="1:46" ht="142.5" customHeight="1">
       <c r="A134" s="3">
-        <v>10051</v>
-      </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+        <v>10048</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1671699600</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1671728400</v>
+      </c>
       <c r="D134" s="3">
         <v>2</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F134" s="3"/>
+        <v>278</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>511</v>
+      </c>
       <c r="G134" s="3">
         <v>2</v>
       </c>
@@ -15168,19 +15762,21 @@
         <v>469</v>
       </c>
       <c r="I134" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M134" s="3"/>
-      <c r="N134" s="3"/>
+      <c r="N134" s="3" t="s">
+        <v>389</v>
+      </c>
       <c r="O134" s="3">
         <v>0</v>
       </c>
@@ -15191,22 +15787,28 @@
         <v>0</v>
       </c>
       <c r="R134" s="3"/>
-      <c r="S134" s="3"/>
-      <c r="T134" s="3"/>
+      <c r="S134" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="T134" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="U134" s="3" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="V134" s="3">
-        <v>1671989892</v>
+        <v>1671697484</v>
       </c>
       <c r="W134" s="3"/>
       <c r="X134" s="3">
         <v>0</v>
       </c>
       <c r="Y134" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z134" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z134" s="3">
+        <v>1000</v>
+      </c>
       <c r="AA134" s="3">
         <v>0</v>
       </c>
@@ -15225,10 +15827,10 @@
         <v>0</v>
       </c>
       <c r="AH134" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI134" s="3" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="AJ134" s="3"/>
       <c r="AK134" s="3"/>
@@ -15243,270 +15845,322 @@
       <c r="AT134" s="3"/>
     </row>
     <row r="135" spans="1:46" ht="142.5" customHeight="1">
-      <c r="A135" s="1">
+      <c r="A135" s="3">
+        <v>10049</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1671699600</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1671728400</v>
+      </c>
+      <c r="D135" s="3">
+        <v>2</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G135" s="3">
+        <v>2</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="I135" s="3">
+        <v>1</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3">
+        <v>0</v>
+      </c>
+      <c r="P135" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="3">
+        <v>0</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="S135" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="T135" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="U135" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V135" s="3">
+        <v>1671697601</v>
+      </c>
+      <c r="W135" s="3"/>
+      <c r="X135" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z135" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA135" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="3"/>
+      <c r="AC135" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD135" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="3"/>
+      <c r="AF135" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG135" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH135" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI135" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ135" s="3"/>
+      <c r="AK135" s="3"/>
+      <c r="AL135" s="3"/>
+      <c r="AM135" s="3"/>
+      <c r="AN135" s="3"/>
+      <c r="AO135" s="3"/>
+      <c r="AP135" s="3"/>
+      <c r="AQ135" s="3"/>
+      <c r="AR135" s="3"/>
+      <c r="AS135" s="3"/>
+      <c r="AT135" s="3"/>
+    </row>
+    <row r="136" spans="1:46" ht="409.5">
+      <c r="A136" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1671969600</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1671976800</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G136" s="3">
+        <v>2</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="I136" s="3">
+        <v>3</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3">
+        <v>0</v>
+      </c>
+      <c r="P136" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="3">
+        <v>0</v>
+      </c>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="V136" s="3">
+        <v>1671915861</v>
+      </c>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z136" s="3"/>
+      <c r="AA136" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB136" s="3"/>
+      <c r="AC136" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD136" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="3"/>
+      <c r="AF136" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG136" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH136" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI136" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ136" s="3"/>
+      <c r="AK136" s="3"/>
+      <c r="AL136" s="3"/>
+      <c r="AM136" s="3"/>
+      <c r="AN136" s="3"/>
+      <c r="AO136" s="3"/>
+      <c r="AP136" s="3"/>
+      <c r="AQ136" s="3"/>
+      <c r="AR136" s="3"/>
+      <c r="AS136" s="3"/>
+      <c r="AT136" s="3"/>
+    </row>
+    <row r="137" spans="1:46" ht="409.5">
+      <c r="A137" s="3">
+        <v>10051</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1672243200</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1672174800</v>
+      </c>
+      <c r="D137" s="3">
+        <v>2</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G137" s="3">
+        <v>2</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="I137" s="3">
+        <v>3</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3">
+        <v>0</v>
+      </c>
+      <c r="P137" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>0</v>
+      </c>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V137" s="3">
+        <v>1671989892</v>
+      </c>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="3"/>
+      <c r="AA137" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB137" s="3"/>
+      <c r="AC137" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD137" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE137" s="3"/>
+      <c r="AF137" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG137" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH137" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI137" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ137" s="3"/>
+      <c r="AK137" s="3"/>
+      <c r="AL137" s="3"/>
+      <c r="AM137" s="3"/>
+      <c r="AN137" s="3"/>
+      <c r="AO137" s="3"/>
+      <c r="AP137" s="3"/>
+      <c r="AQ137" s="3"/>
+      <c r="AR137" s="3"/>
+      <c r="AS137" s="3"/>
+      <c r="AT137" s="3"/>
+    </row>
+    <row r="138" spans="1:46" ht="171">
+      <c r="A138" s="1">
         <v>10053</v>
       </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1">
-        <v>1</v>
-      </c>
-      <c r="E135" s="1">
-        <v>103</v>
-      </c>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1">
-        <v>2</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I135" s="1">
-        <v>7</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1">
-        <v>0</v>
-      </c>
-      <c r="P135" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q135" s="1">
-        <v>0</v>
-      </c>
-      <c r="R135" s="1"/>
-      <c r="S135" s="1"/>
-      <c r="T135" s="1"/>
-      <c r="U135" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V135" s="1">
-        <v>1672088400</v>
-      </c>
-      <c r="W135" s="1"/>
-      <c r="X135" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y135" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z135" s="1"/>
-      <c r="AA135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB135" s="1"/>
-      <c r="AC135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE135" s="1"/>
-      <c r="AF135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH135" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI135" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AJ135" s="1"/>
-      <c r="AK135" s="1"/>
-      <c r="AL135" s="1"/>
-      <c r="AM135" s="1"/>
-      <c r="AN135" s="1"/>
-      <c r="AO135" s="1"/>
-      <c r="AP135" s="1"/>
-      <c r="AQ135" s="1"/>
-      <c r="AR135" s="1"/>
-      <c r="AS135" s="1"/>
-      <c r="AT135" s="5"/>
-    </row>
-    <row r="136" spans="1:46" ht="270.75">
-      <c r="A136" s="1">
-        <v>9940</v>
-      </c>
-      <c r="B136" s="1">
-        <v>1670427000</v>
-      </c>
-      <c r="C136" s="1">
-        <v>1670434200</v>
-      </c>
-      <c r="D136" s="1">
-        <v>1</v>
-      </c>
-      <c r="E136" s="1">
-        <v>302</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G136" s="1">
-        <v>22</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L136" s="1">
-        <v>0</v>
-      </c>
-      <c r="M136" s="1">
-        <v>0</v>
-      </c>
-      <c r="N136" s="1">
-        <v>0</v>
-      </c>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-      <c r="R136" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S136" s="1">
-        <v>1670360400</v>
-      </c>
-      <c r="T136" s="1">
-        <v>1</v>
-      </c>
-      <c r="U136" s="1">
-        <v>0</v>
-      </c>
-      <c r="V136" s="1">
-        <v>0</v>
-      </c>
-      <c r="W136" s="1"/>
-      <c r="X136" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y136" s="1"/>
-      <c r="Z136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB136" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE136" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF136" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="137" spans="1:46" ht="185.25">
-      <c r="A137" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B137" s="1">
-        <v>1670949900</v>
-      </c>
-      <c r="C137" s="1">
-        <v>1670954400</v>
-      </c>
-      <c r="D137" s="1">
-        <v>1</v>
-      </c>
-      <c r="E137" s="1">
-        <v>102</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G137" s="1">
-        <v>23</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1">
-        <v>0</v>
-      </c>
-      <c r="M137" s="1">
-        <v>0</v>
-      </c>
-      <c r="N137" s="1">
-        <v>0</v>
-      </c>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S137" s="1">
-        <v>1670878800</v>
-      </c>
-      <c r="T137" s="1"/>
-      <c r="U137" s="1">
-        <v>0</v>
-      </c>
-      <c r="V137" s="1">
-        <v>0</v>
-      </c>
-      <c r="W137" s="1"/>
-      <c r="X137" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y137" s="1"/>
-      <c r="Z137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB137" s="1"/>
-      <c r="AC137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE137" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF137" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="138" spans="1:46" ht="128.25">
-      <c r="A138" s="1">
-        <v>10008</v>
-      </c>
       <c r="B138" s="1">
-        <v>1671258600</v>
+        <v>1672138800</v>
       </c>
       <c r="C138" s="1">
-        <v>1671264000</v>
+        <v>1672140600</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
@@ -15515,50 +16169,52 @@
         <v>103</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>40</v>
+        <v>510</v>
       </c>
       <c r="G138" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1">
-        <v>0</v>
-      </c>
-      <c r="M138" s="1">
-        <v>0</v>
-      </c>
-      <c r="N138" s="1">
-        <v>0</v>
-      </c>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
-      <c r="R138" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S138" s="1">
-        <v>1671224400</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="I138" s="1">
+        <v>7</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1">
+        <v>0</v>
+      </c>
+      <c r="P138" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>0</v>
+      </c>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
       <c r="T138" s="1"/>
-      <c r="U138" s="1">
-        <v>0</v>
+      <c r="U138" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="V138" s="1">
-        <v>0</v>
+        <v>1672088400</v>
       </c>
       <c r="W138" s="1"/>
       <c r="X138" s="1">
         <v>0</v>
       </c>
-      <c r="Y138" s="1"/>
-      <c r="Z138" s="1">
-        <v>0</v>
-      </c>
+      <c r="Y138" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z138" s="1"/>
       <c r="AA138" s="1">
         <v>0</v>
       </c>
@@ -15569,14 +16225,124 @@
       <c r="AD138" s="1">
         <v>0</v>
       </c>
-      <c r="AE138" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF138" s="1" t="s">
-        <v>453</v>
-      </c>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG138" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH138" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI138" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ138" s="1"/>
+      <c r="AK138" s="1"/>
+      <c r="AL138" s="1"/>
+      <c r="AM138" s="1"/>
+      <c r="AN138" s="1"/>
+      <c r="AO138" s="1"/>
+      <c r="AP138" s="1"/>
+      <c r="AQ138" s="1"/>
+      <c r="AR138" s="1"/>
+      <c r="AS138" s="1"/>
+      <c r="AT138" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="AS85:AS87"/>
+    <mergeCell ref="AT85:AT87"/>
+    <mergeCell ref="AM85:AM87"/>
+    <mergeCell ref="AN85:AN87"/>
+    <mergeCell ref="AO85:AO87"/>
+    <mergeCell ref="AP85:AP87"/>
+    <mergeCell ref="AQ85:AQ87"/>
+    <mergeCell ref="AR85:AR87"/>
+    <mergeCell ref="AG85:AG87"/>
+    <mergeCell ref="AH85:AH87"/>
+    <mergeCell ref="AI85:AI87"/>
+    <mergeCell ref="AJ85:AJ87"/>
+    <mergeCell ref="AK85:AK87"/>
+    <mergeCell ref="AL85:AL87"/>
+    <mergeCell ref="AA85:AA87"/>
+    <mergeCell ref="AB85:AB87"/>
+    <mergeCell ref="AC85:AC87"/>
+    <mergeCell ref="AD85:AD87"/>
+    <mergeCell ref="AE85:AE87"/>
+    <mergeCell ref="AF85:AF87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="V85:V87"/>
+    <mergeCell ref="W85:W87"/>
+    <mergeCell ref="X85:X87"/>
+    <mergeCell ref="Y85:Y87"/>
+    <mergeCell ref="Z85:Z87"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="P85:P87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="AR51:AR52"/>
+    <mergeCell ref="AS51:AS52"/>
+    <mergeCell ref="AT51:AT52"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="AL51:AL52"/>
+    <mergeCell ref="AM51:AM52"/>
+    <mergeCell ref="AN51:AN52"/>
+    <mergeCell ref="AO51:AO52"/>
+    <mergeCell ref="AP51:AP52"/>
+    <mergeCell ref="AQ51:AQ52"/>
+    <mergeCell ref="AF51:AF52"/>
+    <mergeCell ref="AG51:AG52"/>
+    <mergeCell ref="AH51:AH52"/>
+    <mergeCell ref="AI51:AI52"/>
+    <mergeCell ref="AJ51:AJ52"/>
+    <mergeCell ref="AK51:AK52"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="AA51:AA52"/>
+    <mergeCell ref="AB51:AB52"/>
+    <mergeCell ref="AC51:AC52"/>
+    <mergeCell ref="AD51:AD52"/>
+    <mergeCell ref="AE51:AE52"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="X51:X52"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
